--- a/AAII_Financials/Quarterly/GTES_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GTES_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>GTES</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,207 +665,232 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F7" s="2">
         <v>43736</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43645</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43554</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43463</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43372</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43099</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42917</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42826</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>710100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>725700</v>
+      </c>
+      <c r="F8" s="3">
         <v>746600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>809900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>804900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>792100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>828400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>875100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>852000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>781800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>760600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1499300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>730200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>667700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>675500</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>454300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>464300</v>
+      </c>
+      <c r="F9" s="3">
         <v>474200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>508500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>497600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>482100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>501200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>517600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>516100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>479800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>449800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>894100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>443400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>423300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>408100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>255800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>261400</v>
+      </c>
+      <c r="F10" s="3">
         <v>272400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>301400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>307300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>310000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>327200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>357500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>335900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>302000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>310800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>605200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>286800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>244400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>267400</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -882,8 +907,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -926,8 +953,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,52 +1003,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F14" s="3">
         <v>2000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>3700</v>
-      </c>
-      <c r="G14" s="3">
-        <v>3700</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1400</v>
       </c>
       <c r="I14" s="3">
         <v>3700</v>
       </c>
       <c r="J14" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K14" s="3">
+        <v>3700</v>
+      </c>
+      <c r="L14" s="3">
         <v>4700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>18700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>9600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>10000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>3800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>5600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1058,8 +1103,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,96 +1124,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>651700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>657700</v>
+      </c>
+      <c r="F17" s="3">
         <v>669900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>708000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>704700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>672300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>710600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>734200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>733700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>691800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>658000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1291500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>635800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>606200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>594400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>58400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>68000</v>
+      </c>
+      <c r="F18" s="3">
         <v>76700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>101900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>100200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>119800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>117800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>140900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>118300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>90000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>102600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>207800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>94400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>61500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>81100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,228 +1244,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F20" s="3">
         <v>2400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>3300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-3400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>3300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-17400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-10200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-13600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-32500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>5100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>115400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>125400</v>
+      </c>
+      <c r="F21" s="3">
         <v>134200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>159600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>159600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>175100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>168100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>198800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>155900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>133800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>141000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>281500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>146100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>118800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>136300</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E22" s="3">
+        <v>43300</v>
+      </c>
+      <c r="F22" s="3">
         <v>37200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>39200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>38100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>36100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>40200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>39800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>59800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>55600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>55000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>124000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>55200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>53900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>53800</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>27300</v>
+      </c>
+      <c r="F23" s="3">
         <v>41900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>64200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>65400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>83800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>74200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>104400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>41100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>24200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>34000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>51300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>38500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>12700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F24" s="3">
         <v>4400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>37500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-539700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>10200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>11500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>11700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>12800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>15900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>17000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>12500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>6000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,52 +1540,64 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>39900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>25400</v>
+      </c>
+      <c r="F26" s="3">
         <v>37500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>26700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>605100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>82400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>64000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>92900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>29400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>11400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>18100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>34300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>26000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>6700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1496,43 +1605,49 @@
         <v>35600</v>
       </c>
       <c r="E27" s="3">
+        <v>19400</v>
+      </c>
+      <c r="F27" s="3">
+        <v>35600</v>
+      </c>
+      <c r="G27" s="3">
         <v>21700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>614000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>75500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>57200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>85900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>24300</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>13100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>19300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>18500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,52 +1690,64 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-100</v>
       </c>
-      <c r="E29" s="3">
+      <c r="G29" s="3">
         <v>-200</v>
       </c>
-      <c r="F29" s="3">
+      <c r="H29" s="3">
         <v>-300</v>
       </c>
-      <c r="G29" s="3">
+      <c r="I29" s="3">
         <v>100</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>2700</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>-300</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>118800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>100</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>8600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,96 +1840,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-3300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>3400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-3300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>17400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>10200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>13600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>32500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-5100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>19400</v>
+      </c>
+      <c r="F33" s="3">
         <v>35500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>21500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>613700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>75600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>59900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>85600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>24200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>118800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>13200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>19300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>18800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>9900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,101 +1990,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>19400</v>
+      </c>
+      <c r="F35" s="3">
         <v>35500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>21500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>613700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>75600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>59900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>85600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>24200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>118800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>13200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>19300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>18800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>9900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F38" s="2">
         <v>43736</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43645</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43554</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43463</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43372</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43099</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42917</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42826</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,404 +2139,460 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>626300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>635300</v>
+      </c>
+      <c r="F41" s="3">
         <v>456100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>411000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>333600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>423400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>296300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>305200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>328500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>564400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>528400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>509500</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>1000</v>
       </c>
-      <c r="F42" s="3">
-        <v>2800</v>
-      </c>
-      <c r="G42" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H42" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I42" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>800</v>
-      </c>
-      <c r="K42" s="3">
-        <v>500</v>
-      </c>
-      <c r="L42" s="3">
-        <v>400</v>
       </c>
       <c r="M42" s="3">
         <v>500</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>8</v>
+      <c r="N42" s="3">
+        <v>400</v>
+      </c>
+      <c r="O42" s="3">
+        <v>500</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>749700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>716800</v>
+      </c>
+      <c r="F43" s="3">
         <v>758000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>793400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>817300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>749500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>785500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>816800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>806600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>727900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>745500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>754800</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>484400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>475100</v>
+      </c>
+      <c r="F44" s="3">
         <v>507800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>544500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>559700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>537600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>526800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>502100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>492000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>457100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>448300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>422200</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>140600</v>
+        <v>137500</v>
       </c>
       <c r="E45" s="3">
-        <v>116000</v>
+        <v>131400</v>
       </c>
       <c r="F45" s="3">
-        <v>122600</v>
+        <v>142000</v>
       </c>
       <c r="G45" s="3">
-        <v>102800</v>
+        <v>117000</v>
       </c>
       <c r="H45" s="3">
-        <v>107300</v>
+        <v>125400</v>
       </c>
       <c r="I45" s="3">
+        <v>104100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>108600</v>
+      </c>
+      <c r="K45" s="3">
         <v>98500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>90700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>76300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>90900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>90500</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1997900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1958600</v>
+      </c>
+      <c r="F46" s="3">
         <v>1863900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1865900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1836000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1814600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1717200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1723600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1718600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1826200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1813500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1777500</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>23000</v>
+      </c>
+      <c r="F47" s="3">
         <v>34200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>28800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>28000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>29500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>33200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>40300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>37400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>33300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>3700</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>801300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>850900</v>
+      </c>
+      <c r="F48" s="3">
         <v>838400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>870200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>878100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>756300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>761700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>746900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>738900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>686200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>637400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>626300</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3767600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3936500</v>
+      </c>
+      <c r="F49" s="3">
         <v>3912300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>4006000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>4018000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>4036500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>4115800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>4138700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>4254600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>4212300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>4204800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>4190200</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,52 +2685,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>593900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>642300</v>
+      </c>
+      <c r="F52" s="3">
         <v>637100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>659200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>677700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>85700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>90800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>86200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>90600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>95700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>96700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>108100</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,52 +2785,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7184800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>7411300</v>
+      </c>
+      <c r="F54" s="3">
         <v>7285900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>7430100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>7437800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>6722600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>6718700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>6735700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>6840100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>6853700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>6756100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>6702100</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,272 +2879,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>383000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>374700</v>
+      </c>
+      <c r="F57" s="3">
         <v>328500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>378300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>399800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>424000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>402100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>436000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>423200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>392000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>363200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>363100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>54900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>46400</v>
+      </c>
+      <c r="F58" s="3">
         <v>44400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>41200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>34300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>51600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>32800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>42000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>33700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>66400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>33300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>55200</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>229800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>237000</v>
+      </c>
+      <c r="F59" s="3">
         <v>210300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>221800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>207600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>203400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>219500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>220100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>224600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>239400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>238400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>224400</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>667700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>658100</v>
+      </c>
+      <c r="F60" s="3">
         <v>583200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>641300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>641700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>679000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>654400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>698100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>681500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>697800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>634900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>642700</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2901900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2913700</v>
+      </c>
+      <c r="F61" s="3">
         <v>2910600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2935900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2928900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2953400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2962700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>2970400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3013600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>3889300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>3882800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>3854700</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>773800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>828800</v>
+      </c>
+      <c r="F62" s="3">
         <v>862100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>870300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>905100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>756500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>774500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>810700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>829900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>838200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>941200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>954700</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,52 +3325,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4700000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4760300</v>
+      </c>
+      <c r="F66" s="3">
         <v>4708500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4819300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4858700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4775200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4780900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4881900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4960600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5839100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5857200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>5850600</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,52 +3595,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1107600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1072000</v>
+      </c>
+      <c r="F72" s="3">
         <v>1052600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>1017100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>995600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>381900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>306600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>246700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>161100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>136900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>18200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>5000</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,52 +3795,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2484800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2651000</v>
+      </c>
+      <c r="F76" s="3">
         <v>2577400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2610800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2579100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1947400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1937800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1853800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1879500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1014600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>898900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>851500</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,101 +3895,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F80" s="2">
         <v>43736</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43645</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43554</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43463</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43372</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43099</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42917</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42826</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>19400</v>
+      </c>
+      <c r="F81" s="3">
         <v>35500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>21500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>613700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>75600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>59900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>85600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>24200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>118800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>13200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>19300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>18800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>9900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,52 +4024,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>54900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>54800</v>
+      </c>
+      <c r="F83" s="3">
         <v>55100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>56200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>56100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>55200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>53700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>54600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>55000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>54000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>52000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>106200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>52400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>52200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>53500</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,52 +4320,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>203700</v>
+      </c>
+      <c r="F89" s="3">
         <v>81400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>111500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-47700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>171200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>48400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>120400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-26500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>177300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>62900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>79700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-12500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>171200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>94200</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,52 +4394,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-13600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-15600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-21300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-23100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-37600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-49500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-55900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-43300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-25600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-32200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-13900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-25100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-14800</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,52 +4540,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-22100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-15800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-31700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-29500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-40400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-104300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-69400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-120800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-29200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-70600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-21600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-24100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4614,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4660,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,136 +4810,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="F100" s="3">
         <v>-8800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-18200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-13100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-11800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-14100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-28000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-145000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-17100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-19500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-38700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>133200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-16200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-26600</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E101" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F101" s="3">
         <v>-5400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>2800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-3200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-2800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-11500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>5100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>4700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>11900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>7800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-12600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>179300</v>
+      </c>
+      <c r="F102" s="3">
         <v>45100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>77300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-89700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>126700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-8900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-23400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-235800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>36000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>18900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-17700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>106900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>118300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>57600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GTES_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GTES_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>GTES</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E7" s="2">
         <v>43918</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43827</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43736</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43645</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43554</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43463</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43372</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43099</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42917</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42826</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>576500</v>
+      </c>
+      <c r="E8" s="3">
         <v>710100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>725700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>746600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>809900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>804900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>792100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>828400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>875100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>852000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>781800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>760600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1499300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>730200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>667700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>675500</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>373000</v>
+      </c>
+      <c r="E9" s="3">
         <v>454300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>464300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>474200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>508500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>497600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>482100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>501200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>517600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>516100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>479800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>449800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>894100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>443400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>423300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>408100</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>203500</v>
+      </c>
+      <c r="E10" s="3">
         <v>255800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>261400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>272400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>301400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>307300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>310000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>327200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>357500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>335900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>302000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>310800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>605200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>286800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>244400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>267400</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,58 +1026,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E14" s="3">
         <v>1700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-400</v>
-      </c>
-      <c r="H14" s="3">
-        <v>3700</v>
       </c>
       <c r="I14" s="3">
         <v>3700</v>
       </c>
       <c r="J14" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K14" s="3">
         <v>1400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>18700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>9600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>10000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>5600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>573100</v>
+      </c>
+      <c r="E17" s="3">
         <v>651700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>657700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>669900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>708000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>704700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>672300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>710600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>734200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>733700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>691800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>658000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1291500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>635800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>606200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>594400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E18" s="3">
         <v>58400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>68000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>76700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>101900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>100200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>119800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>117800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>140900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>118300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>90000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>102600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>207800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>94400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>61500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>81100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,258 +1279,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E20" s="3">
         <v>2100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-17400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-10200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-13600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-32500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>61800</v>
+      </c>
+      <c r="E21" s="3">
         <v>115400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>125400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>134200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>159600</v>
       </c>
       <c r="H21" s="3">
         <v>159600</v>
       </c>
       <c r="I21" s="3">
+        <v>159600</v>
+      </c>
+      <c r="J21" s="3">
         <v>175100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>168100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>198800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>155900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>133800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>141000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>281500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>146100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>118800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>136300</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E22" s="3">
         <v>36700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>43300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>37200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>39200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>38100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>36100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>40200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>39800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>59800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>55600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>55000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>124000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>55200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>53900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>53800</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="E23" s="3">
         <v>23800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>27300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>41900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>64200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>65400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>83800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>74200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>104400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>41100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>24200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>34000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>51300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>38500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>12700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-16100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>37500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-539700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>10200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>11700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>12800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>15900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>17000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>12500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>6000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="E26" s="3">
         <v>39900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>25400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>37500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>26700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>605100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>82400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>64000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>92900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>29400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>11400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>18100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>34300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>26000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="E27" s="3">
         <v>35600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>19400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>35600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>21700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>614000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>75500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>57200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>85900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>24300</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>13100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>19300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>18500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,58 +1754,64 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-100</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-200</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-300</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>2700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>118800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>100</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>300</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>8600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1913,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>17400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>10200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>13600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>32500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="E33" s="3">
         <v>35600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>19400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>35500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>21500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>613700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>75600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>59900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>85600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>24200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>118800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>13200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>19300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>18800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>9900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="E35" s="3">
         <v>35600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>19400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>35500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>21500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>613700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>75600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>59900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>85600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>24200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>118800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>13200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>19300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>18800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>9900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E38" s="2">
         <v>43918</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43827</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43736</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43645</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43554</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43463</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43372</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43099</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42917</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42826</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2227,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>639700</v>
+      </c>
+      <c r="E41" s="3">
         <v>626300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>635300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>456100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>411000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>333600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>423400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>296300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>305200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>328500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>564400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>528400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>509500</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2218,231 +2308,246 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>1000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>500</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>685600</v>
+      </c>
+      <c r="E43" s="3">
         <v>749700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>716800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>758000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>793400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>817300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>749500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>785500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>816800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>806600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>727900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>745500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>754800</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>498800</v>
+      </c>
+      <c r="E44" s="3">
         <v>484400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>475100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>507800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>544500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>559700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>537600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>526800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>502100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>492000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>457100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>448300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>422200</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>135300</v>
+      </c>
+      <c r="E45" s="3">
         <v>137500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>131400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>142000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>117000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>125400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>104100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>108600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>98500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>90700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>76300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>90900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>90500</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1959400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1997900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1958600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1863900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1865900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1836000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1814600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1717200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1723600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1718600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1826200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1813500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1777500</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2450,38 +2555,38 @@
         <v>24100</v>
       </c>
       <c r="E47" s="3">
+        <v>24100</v>
+      </c>
+      <c r="F47" s="3">
         <v>23000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>34200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>28800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>28000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>29500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>33200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>40300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>37400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>33300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3700</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2491,108 +2596,117 @@
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>789400</v>
+      </c>
+      <c r="E48" s="3">
         <v>801300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>850900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>838400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>870200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>878100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>756300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>761700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>746900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>738900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>686200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>637400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>626300</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3773800</v>
+      </c>
+      <c r="E49" s="3">
         <v>3767600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3936500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3912300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4006000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4018000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4036500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4115800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4138700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4254600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4212300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4204800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4190200</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2808,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>629600</v>
+      </c>
+      <c r="E52" s="3">
         <v>593900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>642300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>637100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>659200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>677700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>85700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>90800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>86200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>90600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>95700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>96700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>108100</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7176300</v>
+      </c>
+      <c r="E54" s="3">
         <v>7184800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7411300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7285900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7430100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7437800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6722600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6718700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6735700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6840100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6853700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6756100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6702100</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,308 +3011,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>317800</v>
+      </c>
+      <c r="E57" s="3">
         <v>383000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>374700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>328500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>378300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>399800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>424000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>402100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>436000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>423200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>392000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>363200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>363100</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>63500</v>
+      </c>
+      <c r="E58" s="3">
         <v>54900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>46400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>44400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>41200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>34300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>51600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>32800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>42000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>33700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>66400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>33300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>55200</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>248000</v>
+      </c>
+      <c r="E59" s="3">
         <v>229800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>237000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>210300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>221800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>207600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>203400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>219500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>220100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>224600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>239400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>238400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>224400</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>629300</v>
+      </c>
+      <c r="E60" s="3">
         <v>667700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>658100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>583200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>641300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>641700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>679000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>654400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>698100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>681500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>697800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>634900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>642700</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2906900</v>
+      </c>
+      <c r="E61" s="3">
         <v>2901900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2913700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2910600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2935900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2928900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2953400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2962700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2970400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3013600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3889300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3882800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3854700</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>798400</v>
+      </c>
+      <c r="E62" s="3">
         <v>773800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>828800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>862100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>870300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>905100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>756500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>774500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>810700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>829900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>838200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>941200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>954700</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4679000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4700000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4760300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4708500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4819300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4858700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4775200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4780900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4881900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4960600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5839100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5857200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5850600</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1085200</v>
+      </c>
+      <c r="E72" s="3">
         <v>1107600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1072000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1052600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1017100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>995600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>381900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>306600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>246700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>161100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>136900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>18200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5000</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2497300</v>
+      </c>
+      <c r="E76" s="3">
         <v>2484800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2651000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2577400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2610800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2579100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1947400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1937800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1853800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1879500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1014600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>898900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>851500</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E80" s="2">
         <v>43918</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43827</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43736</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43645</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43554</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43463</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43372</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43099</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42917</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42826</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="E81" s="3">
         <v>35600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>19400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>35500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>21500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>613700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>75600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>59900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>85600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>24200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>118800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>13200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>19300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>18800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>9900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4224,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>54700</v>
+      </c>
+      <c r="E83" s="3">
         <v>54900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>54800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>55100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>56200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>56100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>55200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>53700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>54600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>55000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>54000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>52000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>106200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>52400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>52200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>53500</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E89" s="3">
         <v>31100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>203700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>81400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>111500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-47700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>171200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>48400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>120400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-26500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>177300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>62900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>79700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>171200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>94200</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4616,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-12100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-21600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-13600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-15600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-21300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-23100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-37600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-49500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-55900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-43300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-25600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-32200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-13900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-25100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-14800</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-24600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-22100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-15800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-31700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-29500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-40400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-104300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-69400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-120800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-29200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-70600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-21600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-24100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,154 +5059,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-19200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-8800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-18200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-13100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-11800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-14100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-28000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-145000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-17100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-19500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-38700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>133200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-16200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-26600</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-12900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-5400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-11500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>5100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>11900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>7800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-12600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-9300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>179300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>45100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>77300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-89700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>126700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-8900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-23400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-235800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>36000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>18900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-17700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>106900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>118300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>57600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GTES_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GTES_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>GTES</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,258 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E7" s="2">
         <v>44009</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43918</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43827</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43645</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43554</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43463</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43372</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43099</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42917</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42826</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>712200</v>
+      </c>
+      <c r="E8" s="3">
         <v>576500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>710100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>725700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>746600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>809900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>804900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>792100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>828400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>875100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>852000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>781800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>760600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1499300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>730200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>667700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>675500</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>438600</v>
+      </c>
+      <c r="E9" s="3">
         <v>373000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>454300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>464300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>474200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>508500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>497600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>482100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>501200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>517600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>516100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>479800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>449800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>894100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>443400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>423300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>408100</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>273600</v>
+      </c>
+      <c r="E10" s="3">
         <v>203500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>255800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>261400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>272400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>301400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>307300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>310000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>327200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>357500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>335900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>302000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>310800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>605200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>286800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>244400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>267400</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,8 +936,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +990,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,61 +1046,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E14" s="3">
         <v>20900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>4000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-400</v>
-      </c>
-      <c r="I14" s="3">
-        <v>3700</v>
       </c>
       <c r="J14" s="3">
         <v>3700</v>
       </c>
       <c r="K14" s="3">
+        <v>3700</v>
+      </c>
+      <c r="L14" s="3">
         <v>1400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>18700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>9600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>10000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>5600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1158,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1179,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>648300</v>
+      </c>
+      <c r="E17" s="3">
         <v>573100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>651700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>657700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>669900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>708000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>704700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>672300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>710600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>734200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>733700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>691800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>658000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1291500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>635800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>606200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>594400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>63900</v>
+      </c>
+      <c r="E18" s="3">
         <v>3400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>58400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>68000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>76700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>101900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>100200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>119800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>117800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>140900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>118300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>90000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>102600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>207800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>94400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>61500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>81100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,273 +1313,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E20" s="3">
         <v>3700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-17400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-10200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-13600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-32500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>121600</v>
+      </c>
+      <c r="E21" s="3">
         <v>61800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>115400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>125400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>134200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>159600</v>
       </c>
       <c r="I21" s="3">
         <v>159600</v>
       </c>
       <c r="J21" s="3">
+        <v>159600</v>
+      </c>
+      <c r="K21" s="3">
         <v>175100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>168100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>198800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>155900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>133800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>141000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>281500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>146100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>118800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>136300</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E22" s="3">
         <v>34300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>36700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>43300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>37200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>39200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>38100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>36100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>40200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>39800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>59800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>55600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>55000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>124000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>55200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>53900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>53800</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-27200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>23800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>27300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>41900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>64200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>65400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>83800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>74200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>104400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>41100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>24200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>34000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>51300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>38500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>12700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-16100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>37500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-539700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>11500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>11700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>12800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>15900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>17000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>12500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>6000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1647,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>45700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-27800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>39900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>25400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>37500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>26700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>605100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>82400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>64000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>92900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>29400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>11400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>18100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>34300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>26000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-22200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>35600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>19400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>35600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>21700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>614000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>75500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>57200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>85900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>24300</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>13100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>19300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>18500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,61 +1815,67 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E29" s="3">
         <v>-200</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-100</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-200</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-300</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>2700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>118800</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>100</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>300</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>8600</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +1983,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>17400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>10200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>13600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>32500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>41900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-22400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>35600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>19400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>35500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>21500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>613700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>75600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>59900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>85600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>24200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>118800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>13200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>19300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>18800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>9900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2151,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>41900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-22400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>35600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>19400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>35500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>21500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>613700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>75600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>59900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>85600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>24200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>118800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>13200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>19300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>18800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>9900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E38" s="2">
         <v>44009</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43918</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43827</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43645</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43554</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43463</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43372</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43099</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42917</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42826</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,61 +2314,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>672300</v>
+      </c>
+      <c r="E41" s="3">
         <v>639700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>626300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>635300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>456100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>411000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>333600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>423400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>296300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>305200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>328500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>564400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>528400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>509500</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2311,285 +2401,300 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>1000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>500</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>743700</v>
+      </c>
+      <c r="E43" s="3">
         <v>685600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>749700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>716800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>758000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>793400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>817300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>749500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>785500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>816800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>806600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>727900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>745500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>754800</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>486400</v>
+      </c>
+      <c r="E44" s="3">
         <v>498800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>484400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>475100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>507800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>544500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>559700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>537600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>526800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>502100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>492000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>457100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>448300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>422200</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>143700</v>
+      </c>
+      <c r="E45" s="3">
         <v>135300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>137500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>131400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>142000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>117000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>125400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>104100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>108600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>98500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>90700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>76300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>90900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>90500</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2046100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1959400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1997900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1958600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1863900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1865900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1836000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1814600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1717200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1723600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1718600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1826200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1813500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1777500</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>24100</v>
+        <v>20400</v>
       </c>
       <c r="E47" s="3">
         <v>24100</v>
       </c>
       <c r="F47" s="3">
+        <v>24100</v>
+      </c>
+      <c r="G47" s="3">
         <v>23000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>34200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>28800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>28000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>29500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>33200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>40300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>37400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>33300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3700</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2599,114 +2704,123 @@
       <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>800000</v>
+      </c>
+      <c r="E48" s="3">
         <v>789400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>801300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>850900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>838400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>870200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>878100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>756300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>761700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>746900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>738900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>686200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>637400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>626300</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3800900</v>
+      </c>
+      <c r="E49" s="3">
         <v>3773800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3767600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3936500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3912300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4006000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4018000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4036500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4115800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4138700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4254600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4212300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4204800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4190200</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +2928,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>668300</v>
+      </c>
+      <c r="E52" s="3">
         <v>629600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>593900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>642300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>637100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>659200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>677700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>85700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>90800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>86200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>90600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>95700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>96700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>108100</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3040,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7335700</v>
+      </c>
+      <c r="E54" s="3">
         <v>7176300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7184800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7411300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7285900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7430100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7437800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6722600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6718700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6735700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6840100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6853700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6756100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6702100</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,326 +3142,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>339400</v>
+      </c>
+      <c r="E57" s="3">
         <v>317800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>383000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>374700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>328500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>378300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>399800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>424000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>402100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>436000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>423200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>392000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>363200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>363100</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>50300</v>
+      </c>
+      <c r="E58" s="3">
         <v>63500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>54900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>46400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>44400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>41200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>34300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>51600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>32800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>42000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>33700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>66400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>33300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>55200</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>264200</v>
+      </c>
+      <c r="E59" s="3">
         <v>248000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>229800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>237000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>210300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>221800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>207600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>203400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>219500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>220100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>224600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>239400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>238400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>224400</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>653900</v>
+      </c>
+      <c r="E60" s="3">
         <v>629300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>667700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>658100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>583200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>641300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>641700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>679000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>654400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>698100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>681500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>697800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>634900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>642700</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2927800</v>
+      </c>
+      <c r="E61" s="3">
         <v>2906900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2901900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2913700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2910600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2935900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2928900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2953400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2962700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2970400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3013600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3889300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3882800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3854700</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>798800</v>
+      </c>
+      <c r="E62" s="3">
         <v>798400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>773800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>828800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>862100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>870300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>905100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>756500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>774500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>810700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>829900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>838200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>941200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>954700</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3644,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4737200</v>
+      </c>
+      <c r="E66" s="3">
         <v>4679000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4700000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4760300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4708500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4819300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4858700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4775200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4780900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4881900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4960600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5839100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5857200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5850600</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3946,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1127100</v>
+      </c>
+      <c r="E72" s="3">
         <v>1085200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1107600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1072000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1052600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1017100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>995600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>381900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>306600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>246700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>161100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>136900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>18200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5000</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4170,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2598500</v>
+      </c>
+      <c r="E76" s="3">
         <v>2497300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2484800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2651000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2577400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2610800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2579100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1947400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1937800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1853800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1879500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1014600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>898900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>851500</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4282,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E80" s="2">
         <v>44009</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43918</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43827</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43645</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43554</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43463</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43372</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43099</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42917</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42826</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>41900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-22400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>35600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>19400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>35500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>21500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>613700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>75600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>59900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>85600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>24200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>118800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>13200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>19300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>18800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>9900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,61 +4423,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>53600</v>
+      </c>
+      <c r="E83" s="3">
         <v>54700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>54900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>54800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>55100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>56200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>56100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>55200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>53700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>54600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>55000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>54000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>52000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>106200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>52400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>52200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>53500</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4757,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>55900</v>
+      </c>
+      <c r="E89" s="3">
         <v>40500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>31100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>203700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>81400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>111500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-47700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>171200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>48400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>120400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-26500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>177300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>62900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>79700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-12500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>171200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>94200</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +4837,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-11000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-12100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-21600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-13600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-15600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-21300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-23100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-37600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-49500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-55900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-43300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-25600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-32200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-13900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-25100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-14800</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5003,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-12500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-24600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-22100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-15800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-31700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-29500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-40400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-104300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-69400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-120800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-29200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-70600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-21600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-24100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5083,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5137,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,163 +5305,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-16000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-19200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-8800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-18200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-13100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-11800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-14100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-28000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-145000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-17100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-19500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-38700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>133200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-16200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-26600</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E101" s="3">
         <v>1400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-12900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-5400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-11500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>5100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>11900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>7800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-12600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E102" s="3">
         <v>13400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-9300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>179300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>45100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>77300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-89700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>126700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-23400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-235800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>36000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>18900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-17700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>106900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>118300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>57600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GTES_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GTES_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>GTES</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,258 +665,271 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E7" s="2">
         <v>44100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44009</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43918</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43827</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43736</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43645</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43554</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43463</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43372</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43099</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42917</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42826</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>794200</v>
+      </c>
+      <c r="E8" s="3">
         <v>712200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>576500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>710100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>725700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>746600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>809900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>804900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>792100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>828400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>875100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>852000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>781800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>760600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1499300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>730200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>667700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>675500</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>438600</v>
+        <v>492300</v>
       </c>
       <c r="E9" s="3">
-        <v>373000</v>
+        <v>438300</v>
       </c>
       <c r="F9" s="3">
-        <v>454300</v>
+        <v>372500</v>
       </c>
       <c r="G9" s="3">
+        <v>454200</v>
+      </c>
+      <c r="H9" s="3">
         <v>464300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>474200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>508500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>497600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>482100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>501200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>517600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>516100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>479800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>449800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>894100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>443400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>423300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>408100</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>273600</v>
+        <v>301900</v>
       </c>
       <c r="E10" s="3">
-        <v>203500</v>
+        <v>273900</v>
       </c>
       <c r="F10" s="3">
-        <v>255800</v>
+        <v>204000</v>
       </c>
       <c r="G10" s="3">
+        <v>255900</v>
+      </c>
+      <c r="H10" s="3">
         <v>261400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>272400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>301400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>307300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>310000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>327200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>357500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>335900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>302000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>310800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>605200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>286800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>244400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>267400</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,8 +950,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -993,8 +1007,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1049,64 +1066,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>14100</v>
+        <v>15200</v>
       </c>
       <c r="E14" s="3">
-        <v>20900</v>
+        <v>17400</v>
       </c>
       <c r="F14" s="3">
-        <v>1700</v>
+        <v>21700</v>
       </c>
       <c r="G14" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H14" s="3">
         <v>4000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-400</v>
-      </c>
-      <c r="J14" s="3">
-        <v>3700</v>
       </c>
       <c r="K14" s="3">
         <v>3700</v>
       </c>
       <c r="L14" s="3">
+        <v>3700</v>
+      </c>
+      <c r="M14" s="3">
         <v>1400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>18700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>9600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>10000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>5600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1161,8 +1184,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,120 +1206,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>708800</v>
+      </c>
+      <c r="E17" s="3">
         <v>648300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>573100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>651700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>657700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>669900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>708000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>704700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>672300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>710600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>734200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>733700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>691800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>658000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1291500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>635800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>606200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>594400</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>85400</v>
+      </c>
+      <c r="E18" s="3">
         <v>63900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>58400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>68000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>76700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>101900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>100200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>119800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>117800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>140900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>118300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>90000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>102600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>207800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>94400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>61500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>81100</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,288 +1347,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E20" s="3">
         <v>4100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-17400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-10200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-13600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-32500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>145100</v>
+      </c>
+      <c r="E21" s="3">
         <v>121600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>61800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>115400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>125400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>134200</v>
-      </c>
-      <c r="I21" s="3">
-        <v>159600</v>
       </c>
       <c r="J21" s="3">
         <v>159600</v>
       </c>
       <c r="K21" s="3">
+        <v>159600</v>
+      </c>
+      <c r="L21" s="3">
         <v>175100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>168100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>198800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>155900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>133800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>141000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>281500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>146100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>118800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>136300</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E22" s="3">
         <v>38300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>34300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>36700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>43300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>37200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>39200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>38100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>36100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>40200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>39800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>59800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>55600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>55000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>124000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>55200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>53900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>53800</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>44700</v>
+      </c>
+      <c r="E23" s="3">
         <v>29700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-27200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>23800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>27300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>41900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>64200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>65400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>83800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>74200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>104400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>41100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>24200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>34000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>51300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>38500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>12700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-16000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-16100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>37500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-539700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>10200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>11500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>11700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>12800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>15900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>17000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>12500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>6000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,120 +1699,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E26" s="3">
         <v>45700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-27800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>39900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>25400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>37500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>26700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>605100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>82400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>64000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>92900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>29400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>11400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>18100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>34300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>26000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E27" s="3">
         <v>42000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-22200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>35600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>19400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>35600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>21700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>614000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>75500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>57200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>85900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>24300</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>13100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>19300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>18500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,64 +1876,70 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>-100</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-200</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>2700</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>118800</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>100</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>300</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>8600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +1994,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,120 +2053,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>17400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>10200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>13600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>32500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E33" s="3">
         <v>41900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-22400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>35600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>19400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>35500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>21500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>613700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>75600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>59900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>85600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>24200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>118800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>13200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>19300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>18800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>9900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,125 +2230,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E35" s="3">
         <v>41900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-22400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>35600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>19400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>35500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>21500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>613700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>75600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>59900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>85600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>24200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>118800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>13200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>19300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>18800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>9900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E38" s="2">
         <v>44100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44009</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43918</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43827</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43736</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43645</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43554</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43463</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43372</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43099</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42917</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42826</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2378,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,64 +2401,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>521400</v>
+      </c>
+      <c r="E41" s="3">
         <v>672300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>639700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>626300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>635300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>456100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>411000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>333600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>423400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>296300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>305200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>328500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>564400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>528400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>509500</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2404,300 +2494,315 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>1000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>500</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>723600</v>
+      </c>
+      <c r="E43" s="3">
         <v>743700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>685600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>749700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>716800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>758000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>793400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>817300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>749500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>785500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>816800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>806600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>727900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>745500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>754800</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>508200</v>
+      </c>
+      <c r="E44" s="3">
         <v>486400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>498800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>484400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>475100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>507800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>544500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>559700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>537600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>526800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>502100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>492000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>457100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>448300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>422200</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>153400</v>
+      </c>
+      <c r="E45" s="3">
         <v>143700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>135300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>137500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>131400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>142000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>117000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>125400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>104100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>108600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>98500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>90700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>76300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>90900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>90500</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1906600</v>
+      </c>
+      <c r="E46" s="3">
         <v>2046100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1959400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1997900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1958600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1863900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1865900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1836000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1814600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1717200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1723600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1718600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1826200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1813500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1777500</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E47" s="3">
         <v>20400</v>
-      </c>
-      <c r="E47" s="3">
-        <v>24100</v>
       </c>
       <c r="F47" s="3">
         <v>24100</v>
       </c>
       <c r="G47" s="3">
+        <v>24100</v>
+      </c>
+      <c r="H47" s="3">
         <v>23000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>34200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>28800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>28000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>29500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>33200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>40300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>37400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>33300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3700</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2707,120 +2812,129 @@
       <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>825900</v>
+      </c>
+      <c r="E48" s="3">
         <v>800000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>789400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>801300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>850900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>838400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>870200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>878100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>756300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>761700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>746900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>738900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>686200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>637400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>626300</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3908800</v>
+      </c>
+      <c r="E49" s="3">
         <v>3800900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3773800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3767600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3936500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3912300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4006000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4018000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4036500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4115800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4138700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4254600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4212300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4204800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4190200</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +2989,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,64 +3048,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>758500</v>
+      </c>
+      <c r="E52" s="3">
         <v>668300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>629600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>593900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>642300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>637100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>659200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>677700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>85700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>90800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>86200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>90600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>95700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>96700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>108100</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,64 +3166,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7426300</v>
+      </c>
+      <c r="E54" s="3">
         <v>7335700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7176300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7184800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7411300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7285900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7430100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7437800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6722600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6718700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6735700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6840100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6853700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6756100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6702100</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3250,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,344 +3273,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>417400</v>
+      </c>
+      <c r="E57" s="3">
         <v>339400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>317800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>383000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>374700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>328500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>378300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>399800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>424000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>402100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>436000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>423200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>392000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>363200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>363100</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E58" s="3">
         <v>50300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>63500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>54900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>46400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>44400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>41200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>34300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>51600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>32800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>42000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>33700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>66400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>33300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>55200</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>265400</v>
+      </c>
+      <c r="E59" s="3">
         <v>264200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>248000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>229800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>237000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>210300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>221800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>207600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>203400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>219500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>220100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>224600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>239400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>238400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>224400</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>726300</v>
+      </c>
+      <c r="E60" s="3">
         <v>653900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>629300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>667700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>658100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>583200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>641300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>641700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>679000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>654400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>698100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>681500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>697800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>634900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>642700</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2668200</v>
+      </c>
+      <c r="E61" s="3">
         <v>2927800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2906900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2901900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2913700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2910600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2935900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2928900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2953400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2962700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2970400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3013600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3889300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3882800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3854700</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>846800</v>
+      </c>
+      <c r="E62" s="3">
         <v>798800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>798400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>773800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>828800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>862100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>870300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>905100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>756500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>774500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>810700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>829900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>838200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>941200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>954700</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3684,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3743,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,64 +3802,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4620600</v>
+      </c>
+      <c r="E66" s="3">
         <v>4737200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4679000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4700000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4760300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4708500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4819300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4858700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4775200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4780900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4881900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4960600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5839100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5857200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5850600</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +3886,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +3943,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4002,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3893,8 +4061,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,64 +4120,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1151400</v>
+      </c>
+      <c r="E72" s="3">
         <v>1127100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1085200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1107600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1072000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1052600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1017100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>995600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>381900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>306600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>246700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>161100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>136900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>18200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5000</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4238,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4297,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,64 +4356,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2805700</v>
+      </c>
+      <c r="E76" s="3">
         <v>2598500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2497300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2484800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2651000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2577400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2610800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2579100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1947400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1937800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1853800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1879500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1014600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>898900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>851500</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,125 +4474,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E80" s="2">
         <v>44100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44009</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43918</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43827</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43736</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43645</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43554</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43463</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43372</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43099</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42917</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42826</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E81" s="3">
         <v>41900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-22400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>35600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>19400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>35500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>21500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>613700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>75600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>59900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>85600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>24200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>118800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>13200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>19300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>18800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>9900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,64 +4622,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>55400</v>
+      </c>
+      <c r="E83" s="3">
         <v>53600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>54700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>54900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>54800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>55100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>56200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>56100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>55200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>53700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>54600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>55000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>54000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>52000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>106200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>52400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>52200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>53500</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4738,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +4797,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +4856,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +4915,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,64 +4974,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>181500</v>
+      </c>
+      <c r="E89" s="3">
         <v>55900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>40500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>31100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>203700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>81400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>111500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-47700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>171200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>48400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>120400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-26500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>177300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>62900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>79700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-12500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>171200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>94200</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,64 +5058,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-15900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-12100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-21600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-13600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-15600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-21300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-23100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-37600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-49500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-55900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-43300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-25600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-32200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-13900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-25100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-14800</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5174,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,64 +5233,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-16500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-12500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-24600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-8400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-22100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-15800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-31700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-29500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-40400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-104300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-69400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-120800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-29200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-70600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-21600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-24100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,8 +5317,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5140,8 +5374,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5433,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5492,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,172 +5551,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-322100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-12800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-16000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-19200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-8800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-18200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-13100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-11800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-14100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-28000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-145000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-17100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-19500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-38700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>133200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-16200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-26600</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E101" s="3">
         <v>7400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-12900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>3200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-5400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-11500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>5100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>4700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>11900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>7800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-12600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-150600</v>
+      </c>
+      <c r="E102" s="3">
         <v>34000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>13400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-9300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>179300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>45100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>77300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-89700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>126700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-8900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-23400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-235800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>36000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>18900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-17700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>106900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>118300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>57600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GTES_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GTES_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>GTES</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,271 +665,283 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E7" s="2">
         <v>44198</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44009</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43918</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43827</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43736</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43645</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43554</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43463</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43372</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43099</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42917</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42826</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>881300</v>
+      </c>
+      <c r="E8" s="3">
         <v>794200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>712200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>576500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>710100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>725700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>746600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>809900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>804900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>792100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>828400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>875100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>852000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>781800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>760600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1499300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>730200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>667700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>675500</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>535800</v>
+      </c>
+      <c r="E9" s="3">
         <v>492300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>438300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>372500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>454200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>464300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>474200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>508500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>497600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>482100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>501200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>517600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>516100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>479800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>449800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>894100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>443400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>423300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>408100</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>345500</v>
+      </c>
+      <c r="E10" s="3">
         <v>301900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>273900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>204000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>255900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>261400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>272400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>301400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>307300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>310000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>327200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>357500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>335900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>302000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>310800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>605200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>286800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>244400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>267400</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -951,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1010,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1069,67 +1085,73 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E14" s="3">
         <v>15200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>17400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>21700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>4000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-400</v>
-      </c>
-      <c r="K14" s="3">
-        <v>3700</v>
       </c>
       <c r="L14" s="3">
         <v>3700</v>
       </c>
       <c r="M14" s="3">
+        <v>3700</v>
+      </c>
+      <c r="N14" s="3">
         <v>1400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>4700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>18700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>9600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>10000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>5600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1187,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1207,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>752700</v>
+      </c>
+      <c r="E17" s="3">
         <v>708800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>648300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>573100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>651700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>657700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>669900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>708000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>704700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>672300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>710600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>734200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>733700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>691800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>658000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1291500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>635800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>606200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>594400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>128600</v>
+      </c>
+      <c r="E18" s="3">
         <v>85400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>63900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>58400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>68000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>76700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>101900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>100200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>119800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>117800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>140900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>118300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>90000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>102600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>207800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>94400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>61500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>81100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1348,303 +1380,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E20" s="3">
         <v>4300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-17400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-13600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-32500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>5100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>185600</v>
+      </c>
+      <c r="E21" s="3">
         <v>145100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>121600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>61800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>115400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>125400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>134200</v>
-      </c>
-      <c r="J21" s="3">
-        <v>159600</v>
       </c>
       <c r="K21" s="3">
         <v>159600</v>
       </c>
       <c r="L21" s="3">
+        <v>159600</v>
+      </c>
+      <c r="M21" s="3">
         <v>175100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>168100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>198800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>155900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>133800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>141000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>281500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>146100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>118800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>136300</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E22" s="3">
         <v>45000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>38300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>34300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>36700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>43300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>37200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>39200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>38100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>36100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>40200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>39800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>59800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>55600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>55000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>124000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>55200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>53900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>53800</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>95400</v>
+      </c>
+      <c r="E23" s="3">
         <v>44700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>29700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-27200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>23800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>27300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>41900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>64200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>65400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>83800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>74200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>104400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>41100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>24200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>34000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>51300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>38500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>12700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E24" s="3">
         <v>12200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-16000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-16100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>37500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-539700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>10200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>11500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>11700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>12800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>15900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>17000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>12500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>6000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1702,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>76500</v>
+      </c>
+      <c r="E26" s="3">
         <v>32500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>45700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-27800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>39900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>25400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>37500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>26700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>605100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>82400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>64000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>92900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>29400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>11400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>18100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>34300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>26000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>6700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>67400</v>
+      </c>
+      <c r="E27" s="3">
         <v>24300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>42000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-22200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>35600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>19400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>35600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>21700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>614000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>75500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>57200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>85900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>24300</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>13100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>19300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>18500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1879,67 +1936,73 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-100</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-200</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>2700</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>118800</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>100</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>300</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>8600</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1997,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2056,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>17400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>10200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>13600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>32500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-5100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>67300</v>
+      </c>
+      <c r="E33" s="3">
         <v>24300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>41900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-22400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>35600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>19400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>35500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>21500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>613700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>75600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>59900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>85600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>24200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>118800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>13200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>19300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>18800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>9900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2233,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>67300</v>
+      </c>
+      <c r="E35" s="3">
         <v>24300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>41900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-22400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>35600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>19400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>35500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>21500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>613700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>75600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>59900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>85600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>24200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>118800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>13200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>19300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>18800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>9900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E38" s="2">
         <v>44198</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44009</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43918</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43827</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43736</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43645</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43554</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43463</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43372</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43099</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42917</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42826</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2379,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2402,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>447400</v>
+      </c>
+      <c r="E41" s="3">
         <v>521400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>672300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>639700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>626300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>635300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>456100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>411000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>333600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>423400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>296300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>305200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>328500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>564400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>528400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>509500</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2497,315 +2586,330 @@
         <v>0</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>1000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>500</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>848000</v>
+      </c>
+      <c r="E43" s="3">
         <v>723600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>743700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>685600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>749700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>716800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>758000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>793400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>817300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>749500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>785500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>816800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>806600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>727900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>745500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>754800</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>536000</v>
+      </c>
+      <c r="E44" s="3">
         <v>508200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>486400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>498800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>484400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>475100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>507800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>544500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>559700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>537600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>526800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>502100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>492000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>457100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>448300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>422200</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>167600</v>
+      </c>
+      <c r="E45" s="3">
         <v>153400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>143700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>135300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>137500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>131400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>142000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>117000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>125400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>104100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>108600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>98500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>90700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>76300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>90900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>90500</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1999000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1906600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2046100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1959400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1997900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1958600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1863900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1865900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1836000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1814600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1717200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1723600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1718600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1826200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1813500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1777500</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E47" s="3">
         <v>26500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>20400</v>
-      </c>
-      <c r="F47" s="3">
-        <v>24100</v>
       </c>
       <c r="G47" s="3">
         <v>24100</v>
       </c>
       <c r="H47" s="3">
+        <v>24100</v>
+      </c>
+      <c r="I47" s="3">
         <v>23000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>34200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>28800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>28000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>29500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>33200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>40300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>37400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>33300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3700</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2815,126 +2919,135 @@
       <c r="U47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>808000</v>
+      </c>
+      <c r="E48" s="3">
         <v>825900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>800000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>789400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>801300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>850900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>838400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>870200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>878100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>756300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>761700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>746900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>738900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>686200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>637400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>626300</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3829300</v>
+      </c>
+      <c r="E49" s="3">
         <v>3908800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3800900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3773800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3767600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3936500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3912300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4006000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4018000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4036500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4115800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4138700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4254600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4212300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4204800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4190200</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2992,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3051,67 +3167,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>719800</v>
+      </c>
+      <c r="E52" s="3">
         <v>758500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>668300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>629600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>593900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>642300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>637100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>659200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>677700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>85700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>90800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>86200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>90600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>95700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>96700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>108100</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3169,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7376400</v>
+      </c>
+      <c r="E54" s="3">
         <v>7426300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7335700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7176300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7184800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7411300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7285900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7430100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7437800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6722600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6718700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6735700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6840100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6853700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6756100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6702100</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3251,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3274,362 +3403,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>439900</v>
+      </c>
+      <c r="E57" s="3">
         <v>417400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>339400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>317800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>383000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>374700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>328500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>378300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>399800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>424000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>402100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>436000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>423200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>392000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>363200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>363100</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E58" s="3">
         <v>43500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>50300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>63500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>54900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>46400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>44400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>41200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>34300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>51600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>32800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>42000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>33700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>66400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>33300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>55200</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>286400</v>
+      </c>
+      <c r="E59" s="3">
         <v>265400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>264200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>248000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>229800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>237000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>210300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>221800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>207600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>203400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>219500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>220100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>224600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>239400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>238400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>224400</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>756600</v>
+      </c>
+      <c r="E60" s="3">
         <v>726300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>653900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>629300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>667700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>658100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>583200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>641300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>641700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>679000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>654400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>698100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>681500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>697800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>634900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>642700</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2629800</v>
+      </c>
+      <c r="E61" s="3">
         <v>2668200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2927800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2906900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2901900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2913700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2910600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2935900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2928900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2953400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2962700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2970400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3013600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3889300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3882800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3854700</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>760000</v>
+      </c>
+      <c r="E62" s="3">
         <v>846800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>798800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>798400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>773800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>828800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>862100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>870300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>905100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>756500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>774500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>810700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>829900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>838200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>941200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>954700</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3687,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3746,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3805,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4524800</v>
+      </c>
+      <c r="E66" s="3">
         <v>4620600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4737200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4679000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4700000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4760300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4708500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4819300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4858700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4775200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4780900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4881900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4960600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5839100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5857200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5850600</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3887,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3946,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4005,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4064,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4123,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1218700</v>
+      </c>
+      <c r="E72" s="3">
         <v>1151400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1127100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1085200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1107600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1072000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1052600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1017100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>995600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>381900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>306600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>246700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>161100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>136900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>18200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5000</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4241,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4300,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4359,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2851600</v>
+      </c>
+      <c r="E76" s="3">
         <v>2805700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2598500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2497300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2484800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2651000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2577400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2610800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2579100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1947400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1937800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1853800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1879500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1014600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>898900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>851500</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4477,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E80" s="2">
         <v>44198</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44009</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43918</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43827</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43736</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43645</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43554</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43463</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43372</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43099</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42917</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42826</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>67300</v>
+      </c>
+      <c r="E81" s="3">
         <v>24300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>41900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-22400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>35600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>19400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>35500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>21500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>613700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>75600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>59900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>85600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>24200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>118800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>13200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>19300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>18800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>9900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4623,67 +4820,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>55800</v>
+      </c>
+      <c r="E83" s="3">
         <v>55400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>53600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>54700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>54900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>54800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>55100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>56200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>56100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>55200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>53700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>54600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>55000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>54000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>52000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>106200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>52400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>52200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>53500</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4741,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4800,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4859,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4918,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4977,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E89" s="3">
         <v>181500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>55900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>40500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>31100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>203700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>81400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>111500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-47700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>171200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>48400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>120400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-26500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>177300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>62900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>79700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-12500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>171200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>94200</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5059,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-15900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-12100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-21600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-13600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-15600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-21300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-23100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-37600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-49500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-55900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-43300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-25600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-32200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-13900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-25100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-14800</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5177,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5236,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-23900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-16500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-12500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-24600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-8400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-22100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-15800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-31700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-29500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-40400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-104300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-69400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-120800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-29200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-70600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-21600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-24100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5318,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5377,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5436,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5495,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5554,181 +5796,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-322100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-12800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-16000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-19200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-8800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-18200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-13100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-11800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-14100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-28000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-145000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-17100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-19500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-38700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>133200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-16200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-26600</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E101" s="3">
         <v>13900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>7400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-12900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>3200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-5400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-11500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>5100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>4700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>11900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>7800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-12600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-74100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-150600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>34000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>13400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-9300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>179300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>45100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>77300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-89700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>126700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-8900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-23400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-235800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>36000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>18900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-17700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>106900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>118300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>57600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GTES_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GTES_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>GTES</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,295 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E7" s="2">
         <v>44289</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44198</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44009</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43918</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43827</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43736</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43645</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43554</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43463</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43372</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43099</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42917</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42826</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>915100</v>
+      </c>
+      <c r="E8" s="3">
         <v>881300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>794200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>712200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>576500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>710100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>725700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>746600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>809900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>804900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>792100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>828400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>875100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>852000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>781800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>760600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1499300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>730200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>667700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>675500</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>548300</v>
+      </c>
+      <c r="E9" s="3">
         <v>535800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>492300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>438300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>372500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>454200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>464300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>474200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>508500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>497600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>482100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>501200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>517600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>516100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>479800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>449800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>894100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>443400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>423300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>408100</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>366800</v>
+      </c>
+      <c r="E10" s="3">
         <v>345500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>301900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>273900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>204000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>255900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>261400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>272400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>301400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>307300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>310000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>327200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>357500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>335900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>302000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>310800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>605200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>286800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>244400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>267400</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1026,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,70 +1104,76 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E14" s="3">
         <v>5600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>15200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>17400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>21700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>4000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-400</v>
-      </c>
-      <c r="L14" s="3">
-        <v>3700</v>
       </c>
       <c r="M14" s="3">
         <v>3700</v>
       </c>
       <c r="N14" s="3">
+        <v>3700</v>
+      </c>
+      <c r="O14" s="3">
         <v>1400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>4700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>18700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>9600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>10000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>3800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>5600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>766000</v>
+      </c>
+      <c r="E17" s="3">
         <v>752700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>708800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>648300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>573100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>651700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>657700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>669900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>708000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>704700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>672300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>710600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>734200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>733700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>691800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>658000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1291500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>635800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>606200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>594400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>149100</v>
+      </c>
+      <c r="E18" s="3">
         <v>128600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>85400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>63900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>58400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>68000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>76700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>101900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>100200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>119800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>117800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>140900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>118300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>90000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>102600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>207800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>94400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>61500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>81100</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1390,309 +1423,324 @@
         <v>1200</v>
       </c>
       <c r="E20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F20" s="3">
         <v>4300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-17400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-10200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-13600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-32500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>5100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>207200</v>
+      </c>
+      <c r="E21" s="3">
         <v>185600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>145100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>121600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>61800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>115400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>125400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>134200</v>
-      </c>
-      <c r="K21" s="3">
-        <v>159600</v>
       </c>
       <c r="L21" s="3">
         <v>159600</v>
       </c>
       <c r="M21" s="3">
+        <v>159600</v>
+      </c>
+      <c r="N21" s="3">
         <v>175100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>168100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>198800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>155900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>133800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>141000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>281500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>146100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>118800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>136300</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E22" s="3">
         <v>34400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>45000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>38300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>34300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>36700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>43300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>37200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>39200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>38100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>36100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>40200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>39800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>59800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>55600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>55000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>124000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>55200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>53900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>53800</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>117000</v>
+      </c>
+      <c r="E23" s="3">
         <v>95400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>44700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>29700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-27200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>23800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>27300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>41900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>64200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>65400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>83800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>74200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>104400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>41100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>24200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>34000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>51300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>38500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>12700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E24" s="3">
         <v>18900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>12200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-16000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-16100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>37500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-539700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>10200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>11500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>11700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>12800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>15900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>17000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>12500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>6000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>105400</v>
+      </c>
+      <c r="E26" s="3">
         <v>76500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>32500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>45700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-27800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>39900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>25400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>37500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>26700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>605100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>82400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>64000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>92900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>29400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>11400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>18100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>34300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>26000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>6700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>96500</v>
+      </c>
+      <c r="E27" s="3">
         <v>67400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>24300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>42000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-22200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>35600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>19400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>35600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>21700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>614000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>75500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>57200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>85900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>24300</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>13100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>19300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>18500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,70 +1996,76 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>400</v>
+      </c>
+      <c r="E29" s="3">
         <v>-100</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-100</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-200</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>2700</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-300</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>118800</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>100</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>300</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>8600</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2134,123 +2203,129 @@
         <v>-1200</v>
       </c>
       <c r="E32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-4300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>17400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>10200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>13600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>32500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-5100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>96900</v>
+      </c>
+      <c r="E33" s="3">
         <v>67300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>24300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>41900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-22400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>35600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>19400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>35500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>21500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>613700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>75600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>59900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>85600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>24200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>118800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>13200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>19300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>18800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>9900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>96900</v>
+      </c>
+      <c r="E35" s="3">
         <v>67300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>24300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>41900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-22400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>35600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>19400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>35500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>21500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>613700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>75600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>59900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>85600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>24200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>118800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>13200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>19300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>18800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>9900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E38" s="2">
         <v>44289</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44198</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44009</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43918</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43827</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43736</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43645</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43554</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43463</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43372</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43099</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42917</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42826</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>473300</v>
+      </c>
+      <c r="E41" s="3">
         <v>447400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>521400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>672300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>639700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>626300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>635300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>456100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>411000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>333600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>423400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>296300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>305200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>328500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>564400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>528400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>509500</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2589,330 +2678,345 @@
         <v>0</v>
       </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
         <v>1000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>500</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>879600</v>
+      </c>
+      <c r="E43" s="3">
         <v>848000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>723600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>743700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>685600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>749700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>716800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>758000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>793400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>817300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>749500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>785500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>816800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>806600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>727900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>745500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>754800</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>588500</v>
+      </c>
+      <c r="E44" s="3">
         <v>536000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>508200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>486400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>498800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>484400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>475100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>507800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>544500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>559700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>537600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>526800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>502100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>492000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>457100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>448300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>422200</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>181100</v>
+      </c>
+      <c r="E45" s="3">
         <v>167600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>153400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>143700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>135300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>137500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>131400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>142000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>117000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>125400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>104100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>108600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>98500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>90700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>76300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>90900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>90500</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2122500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1999000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1906600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2046100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1959400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1997900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1958600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1863900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1865900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1836000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1814600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1717200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1723600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1718600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1826200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1813500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1777500</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E47" s="3">
         <v>20300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>26500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>20400</v>
-      </c>
-      <c r="G47" s="3">
-        <v>24100</v>
       </c>
       <c r="H47" s="3">
         <v>24100</v>
       </c>
       <c r="I47" s="3">
+        <v>24100</v>
+      </c>
+      <c r="J47" s="3">
         <v>23000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>34200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>28800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>28000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>29500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>33200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>40300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>37400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>33300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3700</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2922,132 +3026,141 @@
       <c r="V47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>816900</v>
+      </c>
+      <c r="E48" s="3">
         <v>808000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>825900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>800000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>789400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>801300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>850900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>838400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>870200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>878100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>756300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>761700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>746900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>738900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>686200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>637400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>626300</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3819000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3829300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3908800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3800900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3773800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3767600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3936500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3912300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4006000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4018000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4036500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4115800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4138700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4254600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4212300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4204800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4190200</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>725700</v>
+      </c>
+      <c r="E52" s="3">
         <v>719800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>758500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>668300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>629600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>593900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>642300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>637100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>659200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>677700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>85700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>90800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>86200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>90600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>95700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>96700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>108100</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7498900</v>
+      </c>
+      <c r="E54" s="3">
         <v>7376400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7426300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7335700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7176300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7184800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7411300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7285900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7430100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7437800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6722600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6718700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6735700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6840100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6853700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6756100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6702100</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>479700</v>
+      </c>
+      <c r="E57" s="3">
         <v>439900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>417400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>339400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>317800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>383000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>374700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>328500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>378300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>399800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>424000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>402100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>436000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>423200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>392000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>363200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>363100</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E58" s="3">
         <v>30300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>43500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>50300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>63500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>54900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>46400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>44400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>41200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>34300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>51600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>32800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>42000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>33700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>66400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>33300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>55200</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>322000</v>
+      </c>
+      <c r="E59" s="3">
         <v>286400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>265400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>264200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>248000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>229800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>237000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>210300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>221800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>207600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>203400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>219500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>220100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>224600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>239400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>238400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>224400</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>840800</v>
+      </c>
+      <c r="E60" s="3">
         <v>756600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>726300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>653900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>629300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>667700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>658100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>583200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>641300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>641700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>679000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>654400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>698100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>681500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>697800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>634900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>642700</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2559600</v>
+      </c>
+      <c r="E61" s="3">
         <v>2629800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2668200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2927800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2906900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2901900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2913700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2910600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2935900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2928900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2953400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2962700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2970400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3013600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3889300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3882800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3854700</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>734500</v>
+      </c>
+      <c r="E62" s="3">
         <v>760000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>846800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>798800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>798400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>773800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>828800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>862100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>870300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>905100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>756500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>774500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>810700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>829900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>838200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>941200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>954700</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4515100</v>
+      </c>
+      <c r="E66" s="3">
         <v>4524800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4620600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4737200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4679000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4700000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4760300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4708500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4819300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4858700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4775200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4780900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4881900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4960600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5839100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5857200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5850600</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1315600</v>
+      </c>
+      <c r="E72" s="3">
         <v>1218700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1151400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1127100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1085200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1107600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1072000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1052600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1017100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>995600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>381900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>306600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>246700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>161100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>136900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>18200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5000</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2983800</v>
+      </c>
+      <c r="E76" s="3">
         <v>2851600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2805700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2598500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2497300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2484800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2651000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2577400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2610800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2579100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1947400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1937800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1853800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1879500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1014600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>898900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>851500</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E80" s="2">
         <v>44289</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44198</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44009</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43918</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43827</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43736</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43645</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43554</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43463</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43372</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43099</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42917</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42826</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>96900</v>
+      </c>
+      <c r="E81" s="3">
         <v>67300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>24300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>41900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-22400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>35600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>19400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>35500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>21500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>613700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>75600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>59900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>85600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>24200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>118800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>13200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>19300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>18800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>9900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>56900</v>
+      </c>
+      <c r="E83" s="3">
         <v>55800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>55400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>53600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>54700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>54900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>54800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>55100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>56200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>56100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>55200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>53700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>54600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>55000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>54000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>52000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>106200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>52400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>52200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>53500</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>135800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-24000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>181500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>55900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>40500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>31100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>203700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>81400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>111500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-47700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>171200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>48400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>120400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-26500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>177300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>62900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>79700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-12500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>171200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>94200</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-18100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-19200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-15900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-11000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-12100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-21600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-13600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-21300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-23100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-37600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-49500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-55900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-43300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-25600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-32200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-13900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-25100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-14800</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-29200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-23900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-16500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-12500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-24600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-8400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-22100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-15800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-31700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-29500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-40400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-104300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-69400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-120800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-29200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-70600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-21600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-24100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-87800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-15100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-322100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-12800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-16000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-19200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-8800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-18200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-13100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-11800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-14100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-28000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-145000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-17100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-19500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-38700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>133200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-16200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-26600</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-5800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>13900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>7400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-12900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>3200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-5400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-11500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>5100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>4700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>11900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>7800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-12600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-74100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-150600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>34000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>13400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-9300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>179300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>45100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>77300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-89700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>126700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-8900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-23400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-235800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>36000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>18900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-17700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>106900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>118300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>57600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GTES_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GTES_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>GTES</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,307 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E7" s="2">
         <v>44380</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44289</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44198</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44009</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43918</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43827</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43736</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43645</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43554</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43463</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43372</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43099</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42917</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42826</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>862400</v>
+      </c>
+      <c r="E8" s="3">
         <v>915100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>881300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>794200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>712200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>576500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>710100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>725700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>746600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>809900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>804900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>792100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>828400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>875100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>852000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>781800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>760600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1499300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>730200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>667700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>675500</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>521700</v>
+      </c>
+      <c r="E9" s="3">
         <v>548300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>535800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>492300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>438300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>372500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>454200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>464300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>474200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>508500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>497600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>482100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>501200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>517600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>516100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>479800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>449800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>894100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>443400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>423300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>408100</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>340700</v>
+      </c>
+      <c r="E10" s="3">
         <v>366800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>345500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>301900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>273900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>204000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>255900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>261400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>272400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>301400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>307300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>310000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>327200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>357500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>335900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>302000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>310800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>605200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>286800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>244400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>267400</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +989,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1055,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,73 +1123,79 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E14" s="3">
         <v>4000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>15200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>17400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>21700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>4000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-400</v>
-      </c>
-      <c r="M14" s="3">
-        <v>3700</v>
       </c>
       <c r="N14" s="3">
         <v>3700</v>
       </c>
       <c r="O14" s="3">
+        <v>3700</v>
+      </c>
+      <c r="P14" s="3">
         <v>1400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>4700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>18700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>9600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>10000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>3800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>5600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1259,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1284,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>731900</v>
+      </c>
+      <c r="E17" s="3">
         <v>766000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>752700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>708800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>648300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>573100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>651700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>657700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>669900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>708000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>704700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>672300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>710600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>734200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>733700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>691800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>658000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1291500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>635800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>606200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>594400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>130500</v>
+      </c>
+      <c r="E18" s="3">
         <v>149100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>128600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>85400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>63900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>58400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>68000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>76700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>101900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>100200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>119800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>117800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>140900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>118300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>90000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>102600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>207800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>94400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>61500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>81100</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1446,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1200</v>
+        <v>-1900</v>
       </c>
       <c r="E20" s="3">
         <v>1200</v>
       </c>
       <c r="F20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G20" s="3">
         <v>4300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-17400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-10200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-13600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-32500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>5100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>183300</v>
+      </c>
+      <c r="E21" s="3">
         <v>207200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>185600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>145100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>121600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>61800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>115400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>125400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>134200</v>
-      </c>
-      <c r="L21" s="3">
-        <v>159600</v>
       </c>
       <c r="M21" s="3">
         <v>159600</v>
       </c>
       <c r="N21" s="3">
+        <v>159600</v>
+      </c>
+      <c r="O21" s="3">
         <v>175100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>168100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>198800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>155900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>133800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>141000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>281500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>146100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>118800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>136300</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E22" s="3">
         <v>33300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>34400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>45000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>38300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>34300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>36700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>43300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>37200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>39200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>38100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>36100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>40200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>39800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>59800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>55600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>55000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>124000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>55200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>53900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>53800</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>95500</v>
+      </c>
+      <c r="E23" s="3">
         <v>117000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>95400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>44700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>29700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-27200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>23800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>27300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>41900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>64200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>65400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>83800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>74200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>104400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>41100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>24200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>34000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>51300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>38500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>12700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E24" s="3">
         <v>11600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>18900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>12200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-16000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-16100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>37500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-539700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>10200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>11500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>11700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>12800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>15900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>17000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>12500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>6000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1852,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>78200</v>
+      </c>
+      <c r="E26" s="3">
         <v>105400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>76500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>32500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>45700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-27800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>39900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>25400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>37500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>26700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>605100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>82400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>64000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>92900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>29400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>11400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>18100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>34300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>26000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>6700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>70400</v>
+      </c>
+      <c r="E27" s="3">
         <v>96500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>67400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>24300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>42000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-22200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>35600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>19400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>35600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>21700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>614000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>75500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>57200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>85900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>24300</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>13100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>19300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>18500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,73 +2056,79 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E29" s="3">
         <v>400</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-100</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-100</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-200</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>2700</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-300</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>118800</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>100</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>300</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>8600</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2192,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2260,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1200</v>
+        <v>1900</v>
       </c>
       <c r="E32" s="3">
         <v>-1200</v>
       </c>
       <c r="F32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G32" s="3">
         <v>-4300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>17400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>10200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>13600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>32500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-5100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>70200</v>
+      </c>
+      <c r="E33" s="3">
         <v>96900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>67300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>24300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>41900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-22400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>35600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>19400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>35500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>21500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>613700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>75600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>59900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>85600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>24200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>118800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>13200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>19300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>18800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>9900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2464,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>70200</v>
+      </c>
+      <c r="E35" s="3">
         <v>96900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>67300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>24300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>41900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-22400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>35600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>19400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>35500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>21500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>613700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>75600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>59900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>85600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>24200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>118800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>13200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>19300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>18800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>9900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E38" s="2">
         <v>44380</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44289</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44198</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44009</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43918</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43827</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43736</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43645</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43554</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43463</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43372</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43099</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42917</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42826</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2633,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2659,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>540600</v>
+      </c>
+      <c r="E41" s="3">
         <v>473300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>447400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>521400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>672300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>639700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>626300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>635300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>456100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>411000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>333600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>423400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>296300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>305200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>328500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>564400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>528400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>509500</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2681,291 +2770,306 @@
         <v>0</v>
       </c>
       <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>1000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>500</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>848700</v>
+      </c>
+      <c r="E43" s="3">
         <v>879600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>848000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>723600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>743700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>685600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>749700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>716800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>758000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>793400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>817300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>749500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>785500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>816800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>806600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>727900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>745500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>754800</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>650500</v>
+      </c>
+      <c r="E44" s="3">
         <v>588500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>536000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>508200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>486400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>498800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>484400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>475100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>507800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>544500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>559700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>537600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>526800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>502100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>492000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>457100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>448300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>422200</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>183200</v>
+      </c>
+      <c r="E45" s="3">
         <v>181100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>167600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>153400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>143700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>135300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>137500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>131400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>142000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>117000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>125400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>104100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>108600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>98500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>90700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>76300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>90900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>90500</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2223000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2122500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1999000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1906600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2046100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1959400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1997900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1958600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1863900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1865900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1836000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1814600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1717200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1723600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1718600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1826200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1813500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1777500</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2973,53 +3077,53 @@
         <v>14800</v>
       </c>
       <c r="E47" s="3">
+        <v>14800</v>
+      </c>
+      <c r="F47" s="3">
         <v>20300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>26500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>20400</v>
-      </c>
-      <c r="H47" s="3">
-        <v>24100</v>
       </c>
       <c r="I47" s="3">
         <v>24100</v>
       </c>
       <c r="J47" s="3">
+        <v>24100</v>
+      </c>
+      <c r="K47" s="3">
         <v>23000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>34200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>28800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>28000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>29500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>33200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>40300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>37400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>33300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3700</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3029,138 +3133,147 @@
       <c r="W47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>805200</v>
+      </c>
+      <c r="E48" s="3">
         <v>816900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>808000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>825900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>800000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>789400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>801300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>850900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>838400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>870200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>878100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>756300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>761700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>746900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>738900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>686200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>637400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>626300</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3749900</v>
+      </c>
+      <c r="E49" s="3">
         <v>3819000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3829300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3908800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3800900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3773800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3767600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3936500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3912300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4006000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4018000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4036500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4115800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4138700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4254600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4212300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4204800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4190200</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3337,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3405,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>713100</v>
+      </c>
+      <c r="E52" s="3">
         <v>725700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>719800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>758500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>668300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>629600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>593900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>642300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>637100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>659200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>677700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>85700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>90800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>86200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>90600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>95700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>96700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>108100</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3541,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7506000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7498900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7376400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7426300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7335700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7176300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7184800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7411300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7285900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7430100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7437800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6722600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6718700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6735700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6840100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6853700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6756100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6702100</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3637,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3663,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>459500</v>
+      </c>
+      <c r="E57" s="3">
         <v>479700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>439900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>417400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>339400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>317800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>383000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>374700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>328500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>378300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>399800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>424000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>402100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>436000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>423200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>392000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>363200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>363100</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E58" s="3">
         <v>39100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>30300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>43500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>50300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>63500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>54900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>46400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>44400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>41200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>34300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>51600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>32800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>42000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>33700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>66400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>33300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>55200</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>353100</v>
+      </c>
+      <c r="E59" s="3">
         <v>322000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>286400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>265400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>264200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>248000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>229800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>237000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>210300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>221800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>207600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>203400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>219500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>220100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>224600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>239400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>238400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>224400</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>842400</v>
+      </c>
+      <c r="E60" s="3">
         <v>840800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>756600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>726300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>653900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>629300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>667700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>658100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>583200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>641300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>641700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>679000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>654400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>698100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>681500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>697800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>634900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>642700</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2542000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2559600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2629800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2668200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2927800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2906900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2901900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2913700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2910600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2935900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2928900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2953400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2962700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2970400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3013600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3889300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3882800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3854700</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>720100</v>
+      </c>
+      <c r="E62" s="3">
         <v>734500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>760000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>846800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>798800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>798400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>773800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>828800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>862100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>870300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>905100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>756500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>774500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>810700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>829900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>838200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>941200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>954700</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4137,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4205,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4273,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4489000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4515100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4524800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4620600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4737200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4679000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4700000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4760300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4708500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4819300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4858700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4775200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4780900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4881900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4960600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5839100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5857200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5850600</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4369,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4435,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4503,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4571,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4639,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1385800</v>
+      </c>
+      <c r="E72" s="3">
         <v>1315600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1218700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1151400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1127100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1085200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1107600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1072000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1052600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1017100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>995600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>381900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>306600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>246700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>161100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>136900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>18200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5000</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4775,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4843,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4911,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3017000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2983800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2851600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2805700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2598500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2497300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2484800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2651000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2577400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2610800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2579100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1947400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1937800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1853800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1879500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1014600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>898900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>851500</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5047,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E80" s="2">
         <v>44380</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44289</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44198</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44009</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43918</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43827</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43736</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43645</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43554</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43463</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43372</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43099</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42917</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42826</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>70200</v>
+      </c>
+      <c r="E81" s="3">
         <v>96900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>67300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>24300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>41900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-22400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>35600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>19400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>35500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>21500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>613700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>75600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>59900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>85600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>24200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>118800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>13200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>19300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>18800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>9900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5216,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>54700</v>
+      </c>
+      <c r="E83" s="3">
         <v>56900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>55800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>55400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>53600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>54700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>54900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>54800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>55100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>56200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>56100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>55200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>53700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>54600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>55000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>54000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>52000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>106200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>52400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>52200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>53500</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5350,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5418,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5486,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5554,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5622,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>101700</v>
+      </c>
+      <c r="E89" s="3">
         <v>135800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-24000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>181500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>55900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>40500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>31100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>203700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>81400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>111500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-47700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>171200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>48400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>120400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-26500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>177300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>62900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>79700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-12500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>171200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>94200</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5718,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-22200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-18100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-19200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-15900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-12100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-21600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-15600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-21300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-23100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-37600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-49500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-55900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-43300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-25600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-32200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-13900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-25100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-14800</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5852,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5920,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-21400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-29200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-23900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-16500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-12500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-24600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-8400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-22100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-15800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-31700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-29500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-40400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-104300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-69400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-120800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-29200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-70600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-21600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-24100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6016,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6082,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6150,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6218,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6286,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-87800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-15100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-322100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-12800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-16000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-19200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-18200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-13100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-11800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-14100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-145000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-17100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-19500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-38700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>133200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-16200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-26600</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-5800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>13900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>7400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-12900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-5400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>5100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>4700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>11900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>7800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-12600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>67300</v>
+      </c>
+      <c r="E102" s="3">
         <v>26000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-74100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-150600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>34000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>13400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-9300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>179300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>45100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>77300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-89700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>126700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-8900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-23400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-235800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>36000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>18900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-17700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>106900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>118300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>57600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GTES_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GTES_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>GTES</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,307 +665,319 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E7" s="2">
         <v>44471</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44380</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44289</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44198</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44009</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43918</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43827</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43736</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43645</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43554</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43463</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43372</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43099</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42917</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42826</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>815600</v>
+      </c>
+      <c r="E8" s="3">
         <v>862400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>915100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>881300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>794200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>712200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>576500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>710100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>725700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>746600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>809900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>804900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>792100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>828400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>875100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>852000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>781800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>760600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1499300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>730200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>667700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>675500</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>528000</v>
+      </c>
+      <c r="E9" s="3">
         <v>521700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>548300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>535800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>492300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>438300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>372500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>454200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>464300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>474200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>508500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>497600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>482100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>501200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>517600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>516100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>479800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>449800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>894100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>443400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>423300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>408100</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>287600</v>
+      </c>
+      <c r="E10" s="3">
         <v>340700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>366800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>345500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>301900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>273900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>204000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>255900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>261400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>272400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>301400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>307300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>310000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>327200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>357500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>335900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>302000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>310800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>605200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>286800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>244400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>267400</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1002,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1058,8 +1071,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,76 +1142,82 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E14" s="3">
         <v>2100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>15200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>17400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>21700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-400</v>
-      </c>
-      <c r="N14" s="3">
-        <v>3700</v>
       </c>
       <c r="O14" s="3">
         <v>3700</v>
       </c>
       <c r="P14" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Q14" s="3">
         <v>1400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>4700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>18700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>9600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>10000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>3800</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>5600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1262,8 +1284,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1285,144 +1310,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>739700</v>
+      </c>
+      <c r="E17" s="3">
         <v>731900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>766000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>752700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>708800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>648300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>573100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>651700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>657700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>669900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>708000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>704700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>672300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>710600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>734200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>733700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>691800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>658000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1291500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>635800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>606200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>594400</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>75900</v>
+      </c>
+      <c r="E18" s="3">
         <v>130500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>149100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>128600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>85400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>63900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>58400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>68000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>76700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>101900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>100200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>119800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>117800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>140900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>118300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>90000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>102600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>207800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>94400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>61500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>81100</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1447,348 +1479,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1900</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1200</v>
       </c>
       <c r="F20" s="3">
         <v>1200</v>
       </c>
       <c r="G20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H20" s="3">
         <v>4300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-17400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-10200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-13600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-32500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>5100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>129700</v>
+      </c>
+      <c r="E21" s="3">
         <v>183300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>207200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>185600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>145100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>121600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>61800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>115400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>125400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>134200</v>
-      </c>
-      <c r="M21" s="3">
-        <v>159600</v>
       </c>
       <c r="N21" s="3">
         <v>159600</v>
       </c>
       <c r="O21" s="3">
+        <v>159600</v>
+      </c>
+      <c r="P21" s="3">
         <v>175100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>168100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>198800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>155900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>133800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>141000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>281500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>146100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>118800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>136300</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E22" s="3">
         <v>33100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>33300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>34400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>45000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>38300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>34300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>36700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>43300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>37200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>39200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>38100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>36100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>40200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>39800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>59800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>55600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>55000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>124000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>55200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>53900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>53800</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E23" s="3">
         <v>95500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>117000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>95400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>44700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>29700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-27200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>23800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>27300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>41900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>64200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>65400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>83800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>74200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>104400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>41100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>24200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>34000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>51300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>38500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>12700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="E24" s="3">
         <v>17300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>11600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>18900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>12200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-16000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-16100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>37500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-539700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>10200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>11500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>11700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>12800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>15900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>17000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>12500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>6000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1855,144 +1903,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>71200</v>
+      </c>
+      <c r="E26" s="3">
         <v>78200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>105400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>76500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>32500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>45700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-27800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>39900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>25400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>37500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>26700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>605100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>82400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>64000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>92900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>29400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>11400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>18100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>34300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>26000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>6700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>62800</v>
+      </c>
+      <c r="E27" s="3">
         <v>70400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>96500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>67400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>24300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>42000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-22200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>35600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>19400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>35600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>21700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>614000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>75500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>57200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>85900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>24300</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>13100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>19300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>18500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2059,76 +2116,82 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E29" s="3">
         <v>-200</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>400</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-100</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-200</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>2700</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-300</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>118800</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>100</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>300</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>8600</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2195,8 +2258,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2263,144 +2329,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E32" s="3">
         <v>1900</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-1200</v>
       </c>
       <c r="F32" s="3">
         <v>-1200</v>
       </c>
       <c r="G32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H32" s="3">
         <v>-4300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>17400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>10200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>13600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>32500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-5100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>62700</v>
+      </c>
+      <c r="E33" s="3">
         <v>70200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>96900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>67300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>24300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>41900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-22400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>35600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>19400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>35500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>21500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>613700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>75600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>59900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>85600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>24200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>118800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>13200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>19300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>18800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>9900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2467,149 +2542,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>62700</v>
+      </c>
+      <c r="E35" s="3">
         <v>70200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>96900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>67300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>24300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>41900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-22400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>35600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>19400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>35500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>21500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>613700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>75600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>59900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>85600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>24200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>118800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>13200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>19300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>18800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>9900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E38" s="2">
         <v>44471</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44380</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44289</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44198</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44009</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43918</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43827</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43736</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43645</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43554</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43463</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43372</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43099</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42917</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42826</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2634,8 +2718,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2660,76 +2745,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>658200</v>
+      </c>
+      <c r="E41" s="3">
         <v>540600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>473300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>447400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>521400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>672300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>639700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>626300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>635300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>456100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>411000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>333600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>423400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>296300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>305200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>328500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>564400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>528400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>509500</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2773,360 +2862,375 @@
         <v>0</v>
       </c>
       <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
         <v>1000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>500</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>727200</v>
+      </c>
+      <c r="E43" s="3">
         <v>848700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>879600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>848000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>723600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>743700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>685600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>749700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>716800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>758000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>793400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>817300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>749500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>785500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>816800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>806600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>727900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>745500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>754800</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>682600</v>
+      </c>
+      <c r="E44" s="3">
         <v>650500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>588500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>536000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>508200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>486400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>498800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>484400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>475100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>507800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>544500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>559700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>537600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>526800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>502100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>492000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>457100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>448300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>422200</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>210700</v>
+      </c>
+      <c r="E45" s="3">
         <v>183200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>181100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>167600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>153400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>143700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>135300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>137500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>131400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>142000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>117000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>125400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>104100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>108600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>98500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>90700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>76300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>90900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>90500</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2278700</v>
+      </c>
+      <c r="E46" s="3">
         <v>2223000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2122500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1999000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1906600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2046100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1959400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1997900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1958600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1863900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1865900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1836000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1814600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1717200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1723600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1718600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1826200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1813500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1777500</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>14800</v>
+        <v>15700</v>
       </c>
       <c r="E47" s="3">
         <v>14800</v>
       </c>
       <c r="F47" s="3">
+        <v>14800</v>
+      </c>
+      <c r="G47" s="3">
         <v>20300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>26500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>20400</v>
-      </c>
-      <c r="I47" s="3">
-        <v>24100</v>
       </c>
       <c r="J47" s="3">
         <v>24100</v>
       </c>
       <c r="K47" s="3">
+        <v>24100</v>
+      </c>
+      <c r="L47" s="3">
         <v>23000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>34200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>28800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>28000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>29500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>33200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>40300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>37400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>33300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3700</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3136,144 +3240,153 @@
       <c r="X47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>794500</v>
+      </c>
+      <c r="E48" s="3">
         <v>805200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>816900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>808000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>825900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>800000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>789400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>801300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>850900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>838400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>870200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>878100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>756300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>761700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>746900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>738900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>686200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>637400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>626300</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3705200</v>
+      </c>
+      <c r="E49" s="3">
         <v>3749900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3819000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3829300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3908800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3800900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3773800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3767600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3936500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3912300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4006000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4018000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4036500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4115800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4138700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4254600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4212300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4204800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4190200</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3340,8 +3453,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3408,76 +3524,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>738900</v>
+      </c>
+      <c r="E52" s="3">
         <v>713100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>725700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>719800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>758500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>668300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>629600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>593900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>642300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>637100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>659200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>677700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>85700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>90800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>86200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>90600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>95700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>96700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>108100</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3544,76 +3666,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7533000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7506000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7498900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7376400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7426300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7335700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7176300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7184800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7411300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7285900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7430100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7437800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6722600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6718700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6735700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6840100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6853700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6756100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6702100</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3638,8 +3766,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3664,416 +3793,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>506600</v>
+      </c>
+      <c r="E57" s="3">
         <v>459500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>479700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>439900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>417400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>339400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>317800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>383000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>374700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>328500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>378300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>399800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>424000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>402100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>436000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>423200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>392000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>363200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>363100</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E58" s="3">
         <v>29800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>39100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>30300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>43500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>50300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>63500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>54900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>46400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>44400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>41200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>34300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>51600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>32800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>42000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>33700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>66400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>33300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>55200</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>311200</v>
+      </c>
+      <c r="E59" s="3">
         <v>353100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>322000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>286400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>265400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>264200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>248000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>229800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>237000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>210300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>221800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>207600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>203400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>219500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>220100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>224600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>239400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>238400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>224400</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>855900</v>
+      </c>
+      <c r="E60" s="3">
         <v>842400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>840800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>756600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>726300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>653900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>629300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>667700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>658100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>583200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>641300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>641700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>679000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>654400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>698100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>681500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>697800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>634900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>642700</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2526500</v>
+      </c>
+      <c r="E61" s="3">
         <v>2542000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2559600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2629800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2668200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2927800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2906900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2901900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2913700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2910600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2935900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2928900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2953400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2962700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2970400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3013600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3889300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3882800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3854700</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>669200</v>
+      </c>
+      <c r="E62" s="3">
         <v>720100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>734500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>760000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>846800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>798800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>798400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>773800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>828800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>862100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>870300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>905100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>756500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>774500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>810700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>829900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>838200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>941200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>954700</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4140,8 +4288,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4208,8 +4359,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4276,76 +4430,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4433300</v>
+      </c>
+      <c r="E66" s="3">
         <v>4489000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4515100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4524800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4620600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4737200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4679000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4700000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4760300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4708500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4819300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4858700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4775200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4780900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4881900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4960600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5839100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5857200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5850600</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4370,8 +4530,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4438,8 +4599,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4506,8 +4670,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4574,8 +4741,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4642,76 +4812,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1437900</v>
+      </c>
+      <c r="E72" s="3">
         <v>1385800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1315600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1218700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1151400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1127100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1085200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1107600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1072000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1052600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1017100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>995600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>381900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>306600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>246700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>161100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>136900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>18200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5000</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4778,8 +4954,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4846,8 +5025,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4914,76 +5096,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3099700</v>
+      </c>
+      <c r="E76" s="3">
         <v>3017000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2983800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2851600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2805700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2598500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2497300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2484800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2651000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2577400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2610800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2579100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1947400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1937800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1853800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1879500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1014600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>898900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>851500</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5050,149 +5238,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E80" s="2">
         <v>44471</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44380</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44289</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44198</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44009</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43918</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43827</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43736</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43645</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43554</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43463</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43372</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43099</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42917</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42826</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>62700</v>
+      </c>
+      <c r="E81" s="3">
         <v>70200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>96900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>67300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>24300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>41900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-22400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>35600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>19400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>35500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>21500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>613700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>75600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>59900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>85600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>24200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>118800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>13200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>19300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>18800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>9900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5217,76 +5414,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>55200</v>
+      </c>
+      <c r="E83" s="3">
         <v>54700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>56900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>55800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>55400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>53600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>54700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>54900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>54800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>55100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>56200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>56100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>55200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>53700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>54600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>55000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>54000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>52000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>106200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>52400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>52200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>53500</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5353,8 +5554,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5421,8 +5625,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5489,8 +5696,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5557,8 +5767,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5625,76 +5838,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>168900</v>
+      </c>
+      <c r="E89" s="3">
         <v>101700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>135800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-24000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>181500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>55900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>40500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>31100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>203700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>81400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>111500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-47700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>171200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>48400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>120400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-26500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>177300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>62900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>79700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-12500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>171200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>94200</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5719,76 +5938,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-16100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-22200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-18100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-19200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-15900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-12100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-21600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-13600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-15600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-21300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-23100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-37600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-49500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-55900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-43300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-25600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-32200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-13900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-25100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-14800</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5855,8 +6078,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5923,76 +6149,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-20000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-21400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-29200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-23900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-16500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-12500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-24600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-22100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-15800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-31700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-29500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-40400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-104300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-69400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-120800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-29200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-70600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-21600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-24100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6017,8 +6249,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6085,8 +6318,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6153,8 +6389,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6221,8 +6460,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6289,208 +6531,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-11100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-87800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-15100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-322100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-12800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-16000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-19200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-18200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-13100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-11800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-14100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-28000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-145000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-17100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-19500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-38700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>133200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-16200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-26600</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-5800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>13900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>7400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-12900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-11500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>5100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>3000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>4700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>11900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>7800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-12600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>117600</v>
+      </c>
+      <c r="E102" s="3">
         <v>67300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>26000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-74100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-150600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>34000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>13400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-9300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>179300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>45100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>77300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-89700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>126700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-23400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-235800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>36000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>18900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-17700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>106900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>118300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>57600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GTES_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GTES_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>GTES</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,319 +665,331 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E7" s="2">
         <v>44562</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44471</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44380</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44289</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44198</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44009</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43918</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43827</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43736</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43645</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43554</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43463</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43372</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43099</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42917</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42826</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>893400</v>
+      </c>
+      <c r="E8" s="3">
         <v>815600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>862400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>915100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>881300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>794200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>712200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>576500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>710100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>725700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>746600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>809900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>804900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>792100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>828400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>875100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>852000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>781800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>760600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1499300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>730200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>667700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>675500</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>580900</v>
+      </c>
+      <c r="E9" s="3">
         <v>528000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>521700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>548300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>535800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>492300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>438300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>372500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>454200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>464300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>474200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>508500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>497600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>482100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>501200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>517600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>516100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>479800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>449800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>894100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>443400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>423300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>408100</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>312500</v>
+      </c>
+      <c r="E10" s="3">
         <v>287600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>340700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>366800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>345500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>301900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>273900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>204000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>255900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>261400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>272400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>301400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>307300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>310000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>327200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>357500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>335900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>302000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>310800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>605200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>286800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>244400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>267400</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1015,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1074,8 +1087,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1145,79 +1161,85 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E14" s="3">
         <v>1900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>4000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>5600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>15200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>17400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>21700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-400</v>
-      </c>
-      <c r="O14" s="3">
-        <v>3700</v>
       </c>
       <c r="P14" s="3">
         <v>3700</v>
       </c>
       <c r="Q14" s="3">
+        <v>3700</v>
+      </c>
+      <c r="R14" s="3">
         <v>1400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>4700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>18700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>9600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>10000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>3800</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>5600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1287,8 +1309,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1311,150 +1336,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>825000</v>
+      </c>
+      <c r="E17" s="3">
         <v>739700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>731900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>766000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>752700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>708800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>648300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>573100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>651700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>657700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>669900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>708000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>704700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>672300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>710600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>734200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>733700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>691800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>658000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1291500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>635800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>606200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>594400</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>68400</v>
+      </c>
+      <c r="E18" s="3">
         <v>75900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>130500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>149100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>128600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>85400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>63900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>58400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>68000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>76700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>101900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>100200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>119800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>117800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>140900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>118300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>90000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>102600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>207800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>94400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>61500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>81100</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1480,363 +1512,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1200</v>
       </c>
       <c r="G20" s="3">
         <v>1200</v>
       </c>
       <c r="H20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I20" s="3">
         <v>4300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-17400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-10200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-13600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-32500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>5100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>122900</v>
+      </c>
+      <c r="E21" s="3">
         <v>129700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>183300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>207200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>185600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>145100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>121600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>61800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>115400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>125400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>134200</v>
-      </c>
-      <c r="N21" s="3">
-        <v>159600</v>
       </c>
       <c r="O21" s="3">
         <v>159600</v>
       </c>
       <c r="P21" s="3">
+        <v>159600</v>
+      </c>
+      <c r="Q21" s="3">
         <v>175100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>168100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>198800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>155900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>133800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>141000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>281500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>146100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>118800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>136300</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E22" s="3">
         <v>32700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>33100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>33300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>34400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>45000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>38300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>34300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>36700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>43300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>37200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>39200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>38100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>36100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>40200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>39800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>59800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>55600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>55000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>124000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>55200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>53900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>53800</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E23" s="3">
         <v>41800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>95500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>117000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>95400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>44700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>29700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-27200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>23800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>27300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>41900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>64200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>65400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>83800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>74200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>104400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>41100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>24200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>34000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>51300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>38500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>12700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-29400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>17300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>11600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>18900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>12200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-16000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-16100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>37500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-539700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>10200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>11500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>11700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>12800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>15900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>17000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>12500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>6000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1906,150 +1954,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E26" s="3">
         <v>71200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>78200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>105400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>76500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>32500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>45700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-27800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>39900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>25400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>37500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>26700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>605100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>82400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>64000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>92900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>29400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>11400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>18100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>34300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>26000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>6700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E27" s="3">
         <v>62800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>70400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>96500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>67400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>24300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>42000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-22200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>35600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>19400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>35600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>21700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>614000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>75500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>57200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>85900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>24300</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>13100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>19300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>18500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2119,8 +2176,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,70 +2188,73 @@
         <v>-100</v>
       </c>
       <c r="E29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F29" s="3">
         <v>-200</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>400</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-100</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-200</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-200</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-300</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>2700</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-300</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-100</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>118800</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>100</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>300</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>8600</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2261,8 +2324,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2332,150 +2398,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>600</v>
+      </c>
+      <c r="E32" s="3">
         <v>1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1900</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-1200</v>
       </c>
       <c r="G32" s="3">
         <v>-1200</v>
       </c>
       <c r="H32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I32" s="3">
         <v>-4300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>17400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>10200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>13600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>32500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-5100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E33" s="3">
         <v>62700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>70200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>96900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>67300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>24300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>41900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-22400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>35600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>19400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>35500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>21500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>613700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>75600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>59900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>85600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>24200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>118800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>13200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>19300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>18800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>9900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2545,155 +2620,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E35" s="3">
         <v>62700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>70200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>96900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>67300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>24300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>41900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-22400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>35600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>19400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>35500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>21500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>613700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>75600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>59900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>85600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>24200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>118800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>13200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>19300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>18800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>9900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E38" s="2">
         <v>44562</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44471</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44380</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44289</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44198</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44009</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43918</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43827</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43736</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43645</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43554</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43463</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43372</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43099</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42917</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42826</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2719,8 +2803,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2746,79 +2831,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>406800</v>
+      </c>
+      <c r="E41" s="3">
         <v>658200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>540600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>473300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>447400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>521400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>672300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>639700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>626300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>635300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>456100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>411000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>333600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>423400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>296300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>305200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>328500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>564400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>528400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>509500</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Y41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2865,375 +2954,390 @@
         <v>0</v>
       </c>
       <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
         <v>1000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>500</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Y42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>823500</v>
+      </c>
+      <c r="E43" s="3">
         <v>727200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>848700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>879600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>848000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>723600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>743700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>685600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>749700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>716800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>758000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>793400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>817300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>749500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>785500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>816800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>806600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>727900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>745500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>754800</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Y43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>718300</v>
+      </c>
+      <c r="E44" s="3">
         <v>682600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>650500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>588500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>536000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>508200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>486400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>498800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>484400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>475100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>507800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>544500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>559700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>537600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>526800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>502100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>492000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>457100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>448300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>422200</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Y44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>258000</v>
+      </c>
+      <c r="E45" s="3">
         <v>210700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>183200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>181100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>167600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>153400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>143700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>135300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>137500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>131400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>142000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>117000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>125400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>104100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>108600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>98500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>90700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>76300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>90900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>90500</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Y45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2206600</v>
+      </c>
+      <c r="E46" s="3">
         <v>2278700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2223000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2122500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1999000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1906600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2046100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1959400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1997900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1958600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1863900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1865900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1836000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1814600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1717200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1723600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1718600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1826200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1813500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1777500</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Y46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E47" s="3">
         <v>15700</v>
-      </c>
-      <c r="E47" s="3">
-        <v>14800</v>
       </c>
       <c r="F47" s="3">
         <v>14800</v>
       </c>
       <c r="G47" s="3">
+        <v>14800</v>
+      </c>
+      <c r="H47" s="3">
         <v>20300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>26500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>20400</v>
-      </c>
-      <c r="J47" s="3">
-        <v>24100</v>
       </c>
       <c r="K47" s="3">
         <v>24100</v>
       </c>
       <c r="L47" s="3">
+        <v>24100</v>
+      </c>
+      <c r="M47" s="3">
         <v>23000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>34200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>28800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>28000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>29500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>33200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>40300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>37400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>33300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3700</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3243,150 +3347,159 @@
       <c r="Y47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>787800</v>
+      </c>
+      <c r="E48" s="3">
         <v>794500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>805200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>816900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>808000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>825900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>800000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>789400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>801300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>850900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>838400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>870200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>878100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>756300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>761700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>746900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>738900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>686200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>637400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>626300</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Y48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3653400</v>
+      </c>
+      <c r="E49" s="3">
         <v>3705200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3749900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3819000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3829300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3908800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3800900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3773800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3767600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3936500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3912300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4006000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4018000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4036500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4115800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4138700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4254600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4212300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4204800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4190200</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Y49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3456,8 +3569,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3527,79 +3643,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>736600</v>
+      </c>
+      <c r="E52" s="3">
         <v>738900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>713100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>725700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>719800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>758500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>668300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>629600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>593900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>642300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>637100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>659200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>677700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>85700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>90800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>86200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>90600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>95700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>96700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>108100</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Y52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3669,79 +3791,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7399100</v>
+      </c>
+      <c r="E54" s="3">
         <v>7533000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7506000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7498900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7376400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7426300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7335700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7176300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7184800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7411300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7285900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7430100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7437800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6722600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6718700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6735700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6840100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6853700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6756100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6702100</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Y54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3767,8 +3895,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3794,434 +3923,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>494500</v>
+      </c>
+      <c r="E57" s="3">
         <v>506600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>459500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>479700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>439900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>417400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>339400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>317800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>383000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>374700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>328500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>378300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>399800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>424000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>402100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>436000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>423200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>392000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>363200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>363100</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Y57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E58" s="3">
         <v>38100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>29800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>39100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>30300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>43500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>50300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>63500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>54900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>46400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>44400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>41200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>34300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>51600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>32800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>42000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>33700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>66400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>33300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>55200</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Y58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>264600</v>
+      </c>
+      <c r="E59" s="3">
         <v>311200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>353100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>322000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>286400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>265400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>264200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>248000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>229800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>237000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>210300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>221800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>207600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>203400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>219500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>220100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>224600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>239400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>238400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>224400</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Y59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>788500</v>
+      </c>
+      <c r="E60" s="3">
         <v>855900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>842400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>840800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>756600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>726300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>653900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>629300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>667700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>658100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>583200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>641300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>641700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>679000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>654400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>698100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>681500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>697800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>634900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>642700</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Y60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2573200</v>
+      </c>
+      <c r="E61" s="3">
         <v>2526500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2542000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2559600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2629800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2668200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2927800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2906900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2901900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2913700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2910600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2935900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2928900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2953400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2962700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2970400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3013600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3889300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3882800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3854700</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>661200</v>
+      </c>
+      <c r="E62" s="3">
         <v>669200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>720100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>734500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>760000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>846800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>798800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>798400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>773800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>828800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>862100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>870300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>905100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>756500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>774500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>810700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>829900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>838200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>941200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>954700</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Y62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4291,8 +4439,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4362,8 +4513,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4433,79 +4587,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4404000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4433300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4489000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4515100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4524800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4620600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4737200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4679000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4700000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4760300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4708500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4819300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4858700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4775200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4780900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4881900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4960600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5839100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5857200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5850600</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Y66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4531,8 +4691,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4602,8 +4763,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4673,8 +4837,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4744,8 +4911,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4815,79 +4985,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1414800</v>
+      </c>
+      <c r="E72" s="3">
         <v>1437900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1385800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1315600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1218700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1151400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1127100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1085200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1107600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1072000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1052600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1017100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>995600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>381900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>306600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>246700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>161100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>136900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>18200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>5000</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Y72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4957,8 +5133,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5028,8 +5207,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5099,79 +5281,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2995100</v>
+      </c>
+      <c r="E76" s="3">
         <v>3099700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3017000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2983800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2851600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2805700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2598500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2497300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2484800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2651000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2577400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2610800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2579100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1947400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1937800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1853800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1879500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1014600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>898900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>851500</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Y76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5241,155 +5429,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E80" s="2">
         <v>44562</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44471</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44380</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44289</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44198</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44009</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43918</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43827</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43736</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43645</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43554</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43463</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43372</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43099</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42917</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42826</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E81" s="3">
         <v>62700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>70200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>96900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>67300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>24300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>41900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-22400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>35600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>19400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>35500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>21500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>613700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>75600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>59900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>85600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>24200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>118800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>13200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>19300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>18800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>9900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5415,79 +5612,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>55100</v>
+      </c>
+      <c r="E83" s="3">
         <v>55200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>54700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>56900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>55800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>55400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>53600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>54700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>54900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>54800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>55100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>56200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>56100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>55200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>53700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>54600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>55000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>54000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>52000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>106200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>52400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>52200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>53500</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5557,8 +5758,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5628,8 +5832,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5699,8 +5906,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5770,8 +5980,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5841,79 +6054,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-105400</v>
+      </c>
+      <c r="E89" s="3">
         <v>168900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>101700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>135800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-24000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>181500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>55900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>40500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>31100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>203700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>81400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>111500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-47700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>171200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>48400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>120400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-26500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>177300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>62900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>79700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-12500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>171200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>94200</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5939,79 +6158,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-21300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-16100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-22200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-18100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-19200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-15900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-11000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-12100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-21600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-13600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-15600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-21300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-23100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-37600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-49500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-55900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-43300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-25600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-32200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-13900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-25100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-14800</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6081,8 +6304,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6152,79 +6378,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-15400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-20000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-21400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-29200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-23900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-16500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-12500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-24600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-22100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-15800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-31700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-29500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-40400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-104300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-69400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-120800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-29200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-70600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-21600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-24100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6250,8 +6482,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6321,8 +6554,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6392,8 +6628,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6463,8 +6702,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6534,217 +6776,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-115800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-34600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-11100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-87800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-15100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-322100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-12800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-16000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-19200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-8800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-18200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-13100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-14100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-28000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-145000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-17100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-19500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-38700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>133200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-16200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-26600</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-5800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>13900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>7400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-12900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-11500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>5100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>3000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>4700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>11900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>7800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-12600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-250900</v>
+      </c>
+      <c r="E102" s="3">
         <v>117600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>67300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>26000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-74100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-150600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>34000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>13400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-9300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>179300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>45100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>77300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-89700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>126700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-8900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-23400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-235800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>36000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>18900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-17700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>106900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>118300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>57600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GTES_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GTES_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
   <si>
     <t>GTES</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,331 +665,343 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E7" s="2">
         <v>44653</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44562</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44471</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44380</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44289</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44198</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44009</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43918</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43827</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43736</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43645</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43554</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43463</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43372</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43099</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42917</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42826</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>906800</v>
+      </c>
+      <c r="E8" s="3">
         <v>893400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>815600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>862400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>915100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>881300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>794200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>712200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>576500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>710100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>725700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>746600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>809900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>804900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>792100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>828400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>875100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>852000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>781800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>760600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1499300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>730200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>667700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>675500</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>577000</v>
+      </c>
+      <c r="E9" s="3">
         <v>580900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>528000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>521700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>548300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>535800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>492300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>438300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>372500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>454200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>464300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>474200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>508500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>497600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>482100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>501200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>517600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>516100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>479800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>449800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>894100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>443400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>423300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>408100</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>329800</v>
+      </c>
+      <c r="E10" s="3">
         <v>312500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>287600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>340700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>366800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>345500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>301900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>273900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>204000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>255900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>261400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>272400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>301400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>307300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>310000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>327200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>357500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>335900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>302000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>310800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>605200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>286800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>244400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>267400</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1028,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1090,8 +1103,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1164,82 +1180,88 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E14" s="3">
         <v>9200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>5600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>15200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>17400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>21700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-400</v>
-      </c>
-      <c r="P14" s="3">
-        <v>3700</v>
       </c>
       <c r="Q14" s="3">
         <v>3700</v>
       </c>
       <c r="R14" s="3">
+        <v>3700</v>
+      </c>
+      <c r="S14" s="3">
         <v>1400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>4700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>18700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>9600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>10000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>3800</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>5600</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1312,8 +1334,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1337,156 +1362,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>794100</v>
+      </c>
+      <c r="E17" s="3">
         <v>825000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>739700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>731900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>766000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>752700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>708800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>648300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>573100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>651700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>657700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>669900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>708000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>704700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>672300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>710600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>734200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>733700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>691800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>658000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1291500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>635800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>606200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>594400</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>112700</v>
+      </c>
+      <c r="E18" s="3">
         <v>68400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>75900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>130500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>149100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>128600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>85400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>63900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>58400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>68000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>76700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>101900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>100200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>119800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>117800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>140900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>118300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>90000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>102600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>207800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>94400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>61500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>81100</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1513,378 +1545,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1200</v>
       </c>
       <c r="H20" s="3">
         <v>1200</v>
       </c>
       <c r="I20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J20" s="3">
         <v>4300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-17400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-10200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-13600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-32500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>5100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>160400</v>
+      </c>
+      <c r="E21" s="3">
         <v>122900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>129700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>183300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>207200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>185600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>145100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>121600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>61800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>115400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>125400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>134200</v>
-      </c>
-      <c r="O21" s="3">
-        <v>159600</v>
       </c>
       <c r="P21" s="3">
         <v>159600</v>
       </c>
       <c r="Q21" s="3">
+        <v>159600</v>
+      </c>
+      <c r="R21" s="3">
         <v>175100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>168100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>198800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>155900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>133800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>141000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>281500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>146100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>118800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>136300</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E22" s="3">
         <v>32600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>32700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>33100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>33300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>34400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>45000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>38300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>34300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>36700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>43300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>37200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>39200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>38100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>36100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>40200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>39800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>59800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>55600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>55000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>124000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>55200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>53900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>53800</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>71600</v>
+      </c>
+      <c r="E23" s="3">
         <v>35200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>41800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>95500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>117000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>95400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>44700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>29700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-27200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>23800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>27300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>41900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>64200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>65400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>83800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>74200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>104400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>41100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>24200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>34000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>51300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>38500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>12700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-29400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>17300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>11600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>18900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>12200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-16000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-16100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>37500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-539700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>10200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>11500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>11700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>12800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>15900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>17000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>12500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>6000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1957,156 +2005,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>59300</v>
+      </c>
+      <c r="E26" s="3">
         <v>37400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>71200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>78200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>105400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>76500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>32500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>45700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-27800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>39900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>25400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>37500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>26700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>605100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>82400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>64000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>92900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>29400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>11400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>18100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>34300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>26000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>6700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>53300</v>
+      </c>
+      <c r="E27" s="3">
         <v>31000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>62800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>70400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>96500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>67400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>24300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>42000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-22200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>35600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>19400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>35600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>21700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>614000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>75500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>57200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>85900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>24300</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>13100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>19300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>18500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2179,82 +2236,88 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E29" s="3">
         <v>-100</v>
       </c>
       <c r="F29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G29" s="3">
         <v>-200</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>400</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-100</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-200</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-200</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-300</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>2700</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-300</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-100</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>118800</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>100</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>300</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>8600</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2327,8 +2390,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2401,156 +2467,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E32" s="3">
         <v>600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1900</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-1200</v>
       </c>
       <c r="H32" s="3">
         <v>-1200</v>
       </c>
       <c r="I32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J32" s="3">
         <v>-4300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>17400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>10200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>13600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>32500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-5100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>53100</v>
+      </c>
+      <c r="E33" s="3">
         <v>30900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>62700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>70200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>96900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>67300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>24300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>41900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-22400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>35600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>19400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>35500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>21500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>613700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>75600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>59900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>85600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>24200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>118800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>13200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>19300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>18800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>9900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2623,161 +2698,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>53100</v>
+      </c>
+      <c r="E35" s="3">
         <v>30900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>62700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>70200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>96900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>67300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>24300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>41900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-22400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>35600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>19400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>35500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>21500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>613700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>75600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>59900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>85600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>24200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>118800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>13200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>19300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>18800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>9900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E38" s="2">
         <v>44653</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44562</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44471</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44380</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44289</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44198</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44009</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43918</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43827</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43736</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43645</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43554</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43463</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43372</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43099</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42917</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42826</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2804,8 +2888,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2832,82 +2917,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>393200</v>
+      </c>
+      <c r="E41" s="3">
         <v>406800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>658200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>540600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>473300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>447400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>521400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>672300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>639700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>626300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>635300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>456100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>411000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>333600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>423400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>296300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>305200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>328500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>564400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>528400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>509500</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2957,327 +3046,342 @@
         <v>0</v>
       </c>
       <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
         <v>1000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>500</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>881900</v>
+      </c>
+      <c r="E43" s="3">
         <v>823500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>727200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>848700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>879600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>848000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>723600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>743700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>685600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>749700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>716800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>758000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>793400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>817300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>749500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>785500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>816800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>806600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>727900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>745500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>754800</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>695500</v>
+      </c>
+      <c r="E44" s="3">
         <v>718300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>682600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>650500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>588500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>536000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>508200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>486400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>498800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>484400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>475100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>507800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>544500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>559700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>537600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>526800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>502100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>492000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>457100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>448300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>422200</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>276400</v>
+      </c>
+      <c r="E45" s="3">
         <v>258000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>210700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>183200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>181100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>167600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>153400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>143700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>135300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>137500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>131400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>142000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>117000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>125400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>104100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>108600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>98500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>90700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>76300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>90900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>90500</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2247000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2206600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2278700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2223000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2122500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1999000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1906600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2046100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1959400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1997900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1958600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1863900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1865900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1836000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1814600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1717200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1723600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1718600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1826200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1813500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1777500</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3285,62 +3389,62 @@
         <v>14700</v>
       </c>
       <c r="E47" s="3">
+        <v>14700</v>
+      </c>
+      <c r="F47" s="3">
         <v>15700</v>
-      </c>
-      <c r="F47" s="3">
-        <v>14800</v>
       </c>
       <c r="G47" s="3">
         <v>14800</v>
       </c>
       <c r="H47" s="3">
+        <v>14800</v>
+      </c>
+      <c r="I47" s="3">
         <v>20300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>26500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>20400</v>
-      </c>
-      <c r="K47" s="3">
-        <v>24100</v>
       </c>
       <c r="L47" s="3">
         <v>24100</v>
       </c>
       <c r="M47" s="3">
+        <v>24100</v>
+      </c>
+      <c r="N47" s="3">
         <v>23000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>34200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>28800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>28000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>29500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>33200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>40300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>37400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>33300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3700</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3350,156 +3454,165 @@
       <c r="Z47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>747500</v>
+      </c>
+      <c r="E48" s="3">
         <v>787800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>794500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>805200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>816900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>808000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>825900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>800000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>789400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>801300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>850900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>838400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>870200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>878100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>756300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>761700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>746900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>738900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>686200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>637400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>626300</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3518600</v>
+      </c>
+      <c r="E49" s="3">
         <v>3653400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3705200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3749900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3819000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3829300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3908800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3800900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3773800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3767600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3936500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3912300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4006000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4018000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4036500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4115800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4138700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4254600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4212300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4204800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4190200</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3572,8 +3685,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3646,82 +3762,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>670200</v>
+      </c>
+      <c r="E52" s="3">
         <v>736600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>738900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>713100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>725700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>719800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>758500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>668300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>629600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>593900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>642300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>637100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>659200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>677700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>85700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>90800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>86200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>90600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>95700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>96700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>108100</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3794,82 +3916,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7198000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7399100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7533000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7506000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7498900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7376400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7426300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7335700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7176300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7184800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7411300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7285900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7430100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7437800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6722600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6718700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6735700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6840100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6853700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6756100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6702100</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3896,8 +4024,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3924,452 +4053,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>478800</v>
+      </c>
+      <c r="E57" s="3">
         <v>494500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>506600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>459500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>479700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>439900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>417400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>339400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>317800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>383000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>374700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>328500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>378300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>399800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>424000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>402100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>436000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>423200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>392000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>363200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>363100</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E58" s="3">
         <v>29400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>38100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>29800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>39100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>30300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>43500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>50300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>63500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>54900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>46400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>44400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>41200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>34300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>51600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>32800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>42000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>33700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>66400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>33300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>55200</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>254900</v>
+      </c>
+      <c r="E59" s="3">
         <v>264600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>311200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>353100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>322000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>286400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>265400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>264200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>248000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>229800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>237000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>210300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>221800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>207600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>203400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>219500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>220100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>224600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>239400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>238400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>224400</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>771500</v>
+      </c>
+      <c r="E60" s="3">
         <v>788500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>855900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>842400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>840800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>756600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>726300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>653900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>629300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>667700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>658100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>583200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>641300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>641700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>679000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>654400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>698100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>681500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>697800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>634900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>642700</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2533900</v>
+      </c>
+      <c r="E61" s="3">
         <v>2573200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2526500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2542000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2559600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2629800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2668200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2927800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2906900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2901900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2913700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2910600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2935900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2928900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2953400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2962700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2970400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3013600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3889300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3882800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3854700</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>589300</v>
+      </c>
+      <c r="E62" s="3">
         <v>661200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>669200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>720100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>734500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>760000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>846800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>798800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>798400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>773800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>828800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>862100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>870300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>905100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>756500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>774500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>810700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>829900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>838200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>941200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>954700</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4442,8 +4590,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4516,8 +4667,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4590,82 +4744,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4239800</v>
+      </c>
+      <c r="E66" s="3">
         <v>4404000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4433300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4489000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4515100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4524800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4620600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4737200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4679000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4700000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4760300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4708500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4819300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4858700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4775200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4780900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4881900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4960600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5839100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5857200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5850600</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4692,8 +4852,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4766,8 +4927,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4840,8 +5004,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4914,8 +5081,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4988,82 +5158,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1346100</v>
+      </c>
+      <c r="E72" s="3">
         <v>1414800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1437900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1385800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1315600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1218700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1151400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1127100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1085200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1107600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1072000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1052600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1017100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>995600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>381900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>306600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>246700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>161100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>136900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>18200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>5000</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5136,8 +5312,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5210,8 +5389,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5284,82 +5466,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2958200</v>
+      </c>
+      <c r="E76" s="3">
         <v>2995100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3099700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3017000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2983800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2851600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2805700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2598500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2497300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2484800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2651000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2577400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2610800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2579100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1947400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1937800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1853800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1879500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1014600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>898900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>851500</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5432,161 +5620,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E80" s="2">
         <v>44653</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44562</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44471</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44380</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44289</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44198</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44009</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43918</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43827</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43736</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43645</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43554</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43463</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43372</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43099</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42917</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42826</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>53100</v>
+      </c>
+      <c r="E81" s="3">
         <v>30900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>62700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>70200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>96900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>67300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>24300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>41900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-22400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>35600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>19400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>35500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>21500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>613700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>75600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>59900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>85600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>24200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>118800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>13200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>19300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>18800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>9900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5613,82 +5810,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>55800</v>
+      </c>
+      <c r="E83" s="3">
         <v>55100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>55200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>54700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>56900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>55800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>55400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>53600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>54700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>54900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>54800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>55100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>56200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>56100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>55200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>53700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>54600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>55000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>54000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>52000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>106200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>52400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>52200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>53500</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5761,8 +5962,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5835,8 +6039,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5909,8 +6116,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5983,8 +6193,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6057,82 +6270,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-105400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>168900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>101700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>135800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-24000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>181500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>55900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>40500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>31100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>203700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>81400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>111500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-47700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>171200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>48400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>120400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-26500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>177300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>62900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>79700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-12500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>171200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>94200</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6159,82 +6378,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-17400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-21300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-16100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-22200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-18100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-19200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-15900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-12100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-21600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-13600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-21300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-23100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-37600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-49500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-55900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-43300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-25600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-32200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-13900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-25100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-14800</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6307,8 +6530,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6381,82 +6607,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-25000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-15400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-20000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-21400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-29200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-23900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-16500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-12500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-24600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-22100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-15800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-31700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-29500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-40400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-104300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-69400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-120800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-29200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-70600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-21600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-24100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6483,8 +6715,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6557,8 +6790,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6631,8 +6867,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6705,8 +6944,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6779,226 +7021,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-115800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-34600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-11100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-87800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-15100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-322100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-12800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-16000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-19200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-8800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-18200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-13100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-11800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-14100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-28000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-145000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-17100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-19500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-38700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>133200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-16200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-26600</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-4700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-5800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>13900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>7400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-12900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-5400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-3200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-11500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>5100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>3000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>4700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>11900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>7800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-12600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-250900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>117600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>67300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>26000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-74100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-150600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>34000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>13400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-9300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>179300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>45100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>77300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-89700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>126700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-8900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-23400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-235800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>36000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>18900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-17700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>106900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>118300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>57600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GTES_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GTES_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>GTES</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,343 +665,355 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E7" s="2">
         <v>44744</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44653</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44562</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44471</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44380</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44289</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44198</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43736</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43645</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43554</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43463</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43372</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43099</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42917</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42826</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>860700</v>
+      </c>
+      <c r="E8" s="3">
         <v>906800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>893400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>815600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>862400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>915100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>881300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>794200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>712200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>576500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>710100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>725700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>746600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>809900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>804900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>792100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>828400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>875100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>852000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>781800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>760600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1499300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>730200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>667700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>675500</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>543700</v>
+      </c>
+      <c r="E9" s="3">
         <v>577000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>580900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>528000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>521700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>548300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>535800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>492300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>438300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>372500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>454200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>464300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>474200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>508500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>497600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>482100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>501200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>517600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>516100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>479800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>449800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>894100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>443400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>423300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>408100</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>317000</v>
+      </c>
+      <c r="E10" s="3">
         <v>329800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>312500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>287600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>340700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>366800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>345500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>301900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>273900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>204000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>255900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>261400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>272400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>301400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>307300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>310000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>327200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>357500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>335900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>302000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>310800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>605200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>286800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>244400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>267400</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,8 +1041,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1106,8 +1119,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1183,85 +1199,91 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E14" s="3">
         <v>8000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>9200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>4000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>5600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>15200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>17400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>21700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>3700</v>
       </c>
       <c r="R14" s="3">
         <v>3700</v>
       </c>
       <c r="S14" s="3">
+        <v>3700</v>
+      </c>
+      <c r="T14" s="3">
         <v>1400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>3700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>4700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>18700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>9600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>10000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>3800</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>5600</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1337,8 +1359,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1363,162 +1388,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>756900</v>
+      </c>
+      <c r="E17" s="3">
         <v>794100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>825000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>739700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>731900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>766000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>752700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>708800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>648300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>573100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>651700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>657700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>669900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>708000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>704700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>672300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>710600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>734200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>733700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>691800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>658000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1291500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>635800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>606200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>594400</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>103800</v>
+      </c>
+      <c r="E18" s="3">
         <v>112700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>68400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>75900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>130500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>149100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>128600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>85400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>63900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>58400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>68000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>76700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>101900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>100200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>119800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>117800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>140900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>118300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>90000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>102600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>207800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>94400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>61500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>81100</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1546,393 +1578,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-8100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1900</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1200</v>
       </c>
       <c r="I20" s="3">
         <v>1200</v>
       </c>
       <c r="J20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K20" s="3">
         <v>4300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-17400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-10200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-13600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-32500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>5100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>153900</v>
+      </c>
+      <c r="E21" s="3">
         <v>160400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>122900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>129700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>183300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>207200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>185600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>145100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>121600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>61800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>115400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>125400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>134200</v>
-      </c>
-      <c r="P21" s="3">
-        <v>159600</v>
       </c>
       <c r="Q21" s="3">
         <v>159600</v>
       </c>
       <c r="R21" s="3">
+        <v>159600</v>
+      </c>
+      <c r="S21" s="3">
         <v>175100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>168100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>198800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>155900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>133800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>141000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>281500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>146100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>118800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>136300</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E22" s="3">
         <v>33000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>32600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>32700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>33100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>33300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>34400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>45000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>38300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>34300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>36700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>43300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>37200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>39200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>38100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>36100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>40200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>39800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>59800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>55600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>55000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>124000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>55200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>53900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>53800</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>67400</v>
+      </c>
+      <c r="E23" s="3">
         <v>71600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>35200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>41800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>95500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>117000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>95400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>44700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>29700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-27200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>23800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>27300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>41900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>64200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>65400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>83800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>74200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>104400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>41100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>24200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>34000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>51300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>38500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>12700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E24" s="3">
         <v>12300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-29400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>17300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>11600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>18900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>12200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-16000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-16100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>37500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-539700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>10200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>11500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>11700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>12800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>15900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>17000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>12500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>6000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2008,162 +2056,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E26" s="3">
         <v>59300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>37400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>71200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>78200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>105400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>76500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>32500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>45700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-27800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>39900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>25400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>37500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>26700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>605100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>82400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>64000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>92900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>29400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>11400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>18100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>34300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>26000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>6700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E27" s="3">
         <v>53300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>31000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>62800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>70400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>96500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>67400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>24300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>42000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-22200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>35600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>19400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>35600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>21700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>614000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>75500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>57200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>85900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>24300</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>13100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>19300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>18500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2239,85 +2296,91 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>-200</v>
-      </c>
-      <c r="E29" s="3">
-        <v>-100</v>
       </c>
       <c r="F29" s="3">
         <v>-100</v>
       </c>
       <c r="G29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H29" s="3">
         <v>-200</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>400</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-100</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-200</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-200</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-300</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>2700</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-300</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-100</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>118800</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>100</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>300</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>8600</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2393,8 +2456,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2470,162 +2536,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E32" s="3">
         <v>8100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1900</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-1200</v>
       </c>
       <c r="I32" s="3">
         <v>-1200</v>
       </c>
       <c r="J32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-4300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>17400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>10200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>13600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>32500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-5100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E33" s="3">
         <v>53100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>30900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>62700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>70200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>96900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>67300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>24300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>41900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-22400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>35600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>19400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>35500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>21500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>613700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>75600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>59900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>85600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>24200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>118800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>13200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>19300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>18800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>9900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2701,167 +2776,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E35" s="3">
         <v>53100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>30900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>62700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>70200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>96900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>67300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>24300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>41900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-22400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>35600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>19400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>35500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>21500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>613700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>75600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>59900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>85600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>24200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>118800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>13200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>19300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>18800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>9900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E38" s="2">
         <v>44744</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44653</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44562</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44471</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44380</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44289</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44198</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43736</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43645</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43554</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43463</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43372</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43099</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42917</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42826</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2889,8 +2973,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2918,85 +3003,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>395300</v>
+      </c>
+      <c r="E41" s="3">
         <v>393200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>406800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>658200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>540600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>473300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>447400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>521400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>672300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>639700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>626300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>635300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>456100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>411000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>333600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>423400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>296300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>305200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>328500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>564400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>528400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>509500</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3049,339 +3138,354 @@
         <v>0</v>
       </c>
       <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
         <v>1000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>500</v>
       </c>
-      <c r="Y42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>868200</v>
+      </c>
+      <c r="E43" s="3">
         <v>881900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>823500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>727200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>848700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>879600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>848000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>723600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>743700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>685600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>749700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>716800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>758000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>793400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>817300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>749500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>785500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>816800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>806600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>727900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>745500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>754800</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>686600</v>
+      </c>
+      <c r="E44" s="3">
         <v>695500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>718300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>682600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>650500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>588500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>536000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>508200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>486400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>498800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>484400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>475100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>507800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>544500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>559700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>537600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>526800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>502100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>492000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>457100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>448300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>422200</v>
       </c>
-      <c r="Y44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>266800</v>
+      </c>
+      <c r="E45" s="3">
         <v>276400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>258000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>210700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>183200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>181100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>167600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>153400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>143700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>135300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>137500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>131400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>142000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>117000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>125400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>104100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>108600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>98500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>90700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>76300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>90900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>90500</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2216900</v>
+      </c>
+      <c r="E46" s="3">
         <v>2247000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2206600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2278700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2223000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2122500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1999000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1906600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2046100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1959400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1997900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1958600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1863900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1865900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1836000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1814600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1717200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1723600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1718600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1826200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1813500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1777500</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3392,62 +3496,62 @@
         <v>14700</v>
       </c>
       <c r="F47" s="3">
+        <v>14700</v>
+      </c>
+      <c r="G47" s="3">
         <v>15700</v>
-      </c>
-      <c r="G47" s="3">
-        <v>14800</v>
       </c>
       <c r="H47" s="3">
         <v>14800</v>
       </c>
       <c r="I47" s="3">
+        <v>14800</v>
+      </c>
+      <c r="J47" s="3">
         <v>20300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>26500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>20400</v>
-      </c>
-      <c r="L47" s="3">
-        <v>24100</v>
       </c>
       <c r="M47" s="3">
         <v>24100</v>
       </c>
       <c r="N47" s="3">
+        <v>24100</v>
+      </c>
+      <c r="O47" s="3">
         <v>23000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>34200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>28800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>28000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>29500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>33200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>40300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>37400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>33300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>3700</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3457,162 +3561,171 @@
       <c r="AA47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>748400</v>
+      </c>
+      <c r="E48" s="3">
         <v>747500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>787800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>794500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>805200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>816900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>808000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>825900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>800000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>789400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>801300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>850900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>838400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>870200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>878100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>756300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>761700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>746900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>738900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>686200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>637400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>626300</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3396900</v>
+      </c>
+      <c r="E49" s="3">
         <v>3518600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3653400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3705200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3749900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3819000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3829300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3908800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3800900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3773800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3767600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3936500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3912300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4006000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4018000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4036500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4115800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4138700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4254600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4212300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4204800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>4190200</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3688,8 +3801,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3765,85 +3881,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>661800</v>
+      </c>
+      <c r="E52" s="3">
         <v>670200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>736600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>738900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>713100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>725700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>719800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>758500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>668300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>629600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>593900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>642300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>637100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>659200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>677700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>85700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>90800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>86200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>90600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>95700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>96700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>108100</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3919,85 +4041,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7038700</v>
+      </c>
+      <c r="E54" s="3">
         <v>7198000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7399100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7533000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7506000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7498900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7376400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7426300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7335700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7176300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7184800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7411300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7285900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7430100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7437800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6722600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6718700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6735700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6840100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6853700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6756100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>6702100</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4025,8 +4153,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4054,470 +4183,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>453200</v>
+      </c>
+      <c r="E57" s="3">
         <v>478800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>494500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>506600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>459500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>479700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>439900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>417400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>339400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>317800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>383000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>374700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>328500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>378300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>399800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>424000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>402100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>436000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>423200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>392000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>363200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>363100</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E58" s="3">
         <v>37800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>29400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>38100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>29800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>39100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>30300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>43500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>50300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>63500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>54900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>46400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>44400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>41200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>34300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>51600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>32800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>42000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>33700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>66400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>33300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>55200</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>265300</v>
+      </c>
+      <c r="E59" s="3">
         <v>254900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>264600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>311200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>353100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>322000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>286400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>265400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>264200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>248000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>229800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>237000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>210300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>221800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>207600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>203400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>219500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>220100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>224600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>239400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>238400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>224400</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>746700</v>
+      </c>
+      <c r="E60" s="3">
         <v>771500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>788500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>855900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>842400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>840800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>756600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>726300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>653900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>629300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>667700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>658100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>583200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>641300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>641700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>679000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>654400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>698100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>681500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>697800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>634900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>642700</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2467100</v>
+      </c>
+      <c r="E61" s="3">
         <v>2533900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2573200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2526500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2542000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2559600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2629800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2668200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2927800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2906900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2901900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2913700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2910600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2935900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2928900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2953400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2962700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2970400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3013600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3889300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3882800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3854700</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>581400</v>
+      </c>
+      <c r="E62" s="3">
         <v>589300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>661200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>669200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>720100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>734500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>760000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>846800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>798800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>798400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>773800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>828800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>862100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>870300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>905100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>756500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>774500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>810700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>829900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>838200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>941200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>954700</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4593,8 +4741,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4670,8 +4821,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4747,85 +4901,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4102700</v>
+      </c>
+      <c r="E66" s="3">
         <v>4239800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4404000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4433300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4489000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4515100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4524800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4620600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4737200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4679000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4700000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4760300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4708500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4819300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4858700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4775200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4780900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4881900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4960600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5839100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5857200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5850600</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4853,8 +5013,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4930,8 +5091,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5007,8 +5171,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5084,8 +5251,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5161,85 +5331,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1398000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1346100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1414800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1437900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1385800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1315600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1218700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1151400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1127100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1085200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1107600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1072000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1052600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1017100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>995600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>381900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>306600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>246700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>161100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>136900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>18200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>5000</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5315,8 +5491,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5392,8 +5571,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5469,85 +5651,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2936000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2958200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2995100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3099700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3017000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2983800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2851600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2805700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2598500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2497300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2484800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2651000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2577400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2610800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2579100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1947400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1937800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1853800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1879500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1014600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>898900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>851500</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5623,167 +5811,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E80" s="2">
         <v>44744</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44653</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44562</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44471</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44380</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44289</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44198</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43736</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43645</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43554</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43463</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43372</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43099</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42917</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42826</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E81" s="3">
         <v>53100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>30900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>62700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>70200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>96900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>67300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>24300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>41900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-22400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>35600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>19400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>35500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>21500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>613700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>75600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>59900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>85600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>24200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>118800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>13200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>19300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>18800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>9900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5811,85 +6008,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>53200</v>
+      </c>
+      <c r="E83" s="3">
         <v>55800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>55100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>55200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>54700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>56900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>55800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>55400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>53600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>54700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>54900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>54800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>55100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>56200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>56100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>55200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>53700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>54600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>55000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>54000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>52000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>106200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>52400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>52200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>53500</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5965,8 +6166,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6042,8 +6246,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6119,8 +6326,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6196,8 +6406,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6273,85 +6486,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100600</v>
+      </c>
+      <c r="E89" s="3">
         <v>23600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-105400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>168900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>101700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>135800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-24000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>181500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>55900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>40500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>31100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>203700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>81400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>111500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-47700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>171200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>48400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>120400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-26500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>177300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>62900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>79700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-12500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>171200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>94200</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6379,85 +6598,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-17500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-17400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-21300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-16100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-22200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-18100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-19200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-12100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-21600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-13600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-15600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-21300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-23100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-37600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-49500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-55900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-43300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-25600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-32200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-13900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-25100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-14800</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6533,8 +6756,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6610,85 +6836,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-17600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-25000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-15400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-20000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-21400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-29200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-23900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-16500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-12500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-24600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-22100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-15800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-31700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-29500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-40400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-104300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-69400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-120800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-29200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-70600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-21600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-24100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6716,8 +6948,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6793,8 +7026,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6870,8 +7106,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6947,8 +7186,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7024,235 +7266,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-49700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-11500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-115800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-34600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-11100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-87800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-15100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-322100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-12800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-16000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-19200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-8800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-18200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-13100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-11800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-14100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-28000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-145000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-17100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-19500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-38700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>133200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-16200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-26600</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-8200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-4700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-5800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>13900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>7400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-12900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-5400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-3200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-11500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>5100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>3000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>4700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>11900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>7800</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-12600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-13700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-250900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>117600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>67300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>26000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-74100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-150600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>34000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>13400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-9300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>179300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>45100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>77300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-89700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>126700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-8900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-23400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-235800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>36000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>18900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-17700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>106900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>118300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>57600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GTES_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GTES_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>GTES</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,355 +665,368 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44835</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44744</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44653</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44562</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44471</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44380</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44289</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44198</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44009</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43918</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43827</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43736</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43645</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43554</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43463</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43372</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43099</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42917</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42826</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>893300</v>
+      </c>
+      <c r="E8" s="3">
         <v>860700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>906800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>893400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>815600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>862400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>915100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>881300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>794200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>712200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>576500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>710100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>725700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>746600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>809900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>804900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>792100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>828400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>875100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>852000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>781800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>760600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1499300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>730200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>667700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>675500</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>580300</v>
+      </c>
+      <c r="E9" s="3">
         <v>543700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>577000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>580900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>528000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>521700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>548300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>535800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>492300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>438300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>372500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>454200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>464300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>474200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>508500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>497600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>482100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>501200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>517600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>516100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>479800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>449800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>894100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>443400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>423300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>408100</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>313000</v>
+      </c>
+      <c r="E10" s="3">
         <v>317000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>329800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>312500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>287600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>340700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>366800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>345500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>301900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>273900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>204000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>255900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>261400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>272400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>301400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>307300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>310000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>327200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>357500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>335900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>302000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>310800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>605200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>286800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>244400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>267400</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1042,8 +1055,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1122,8 +1136,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1202,88 +1219,94 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E14" s="3">
         <v>13400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>8000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>9200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>4000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>5600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>15200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>17400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>21700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>4000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-400</v>
-      </c>
-      <c r="R14" s="3">
-        <v>3700</v>
       </c>
       <c r="S14" s="3">
         <v>3700</v>
       </c>
       <c r="T14" s="3">
+        <v>3700</v>
+      </c>
+      <c r="U14" s="3">
         <v>1400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>3700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>4700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>18700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>9600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>10000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>3800</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>5600</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1362,8 +1385,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1389,168 +1415,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>794200</v>
+      </c>
+      <c r="E17" s="3">
         <v>756900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>794100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>825000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>739700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>731900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>766000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>752700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>708800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>648300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>573100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>651700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>657700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>669900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>708000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>704700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>672300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>710600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>734200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>733700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>691800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>658000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1291500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>635800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>606200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>594400</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>99100</v>
+      </c>
+      <c r="E18" s="3">
         <v>103800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>112700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>68400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>75900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>130500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>149100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>128600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>85400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>63900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>58400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>68000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>76700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>101900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>100200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>119800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>117800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>140900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>118300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>90000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>102600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>207800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>94400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>61500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>81100</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1579,408 +1612,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-8100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1900</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1200</v>
       </c>
       <c r="J20" s="3">
         <v>1200</v>
       </c>
       <c r="K20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L20" s="3">
         <v>4300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-17400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-10200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-13600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-32500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>5100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>177200</v>
+      </c>
+      <c r="E21" s="3">
         <v>153900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>160400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>122900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>129700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>183300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>207200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>185600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>145100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>121600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>61800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>115400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>125400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>134200</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>159600</v>
       </c>
       <c r="R21" s="3">
         <v>159600</v>
       </c>
       <c r="S21" s="3">
+        <v>159600</v>
+      </c>
+      <c r="T21" s="3">
         <v>175100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>168100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>198800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>155900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>133800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>141000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>281500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>146100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>118800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>136300</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E22" s="3">
         <v>33300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>33000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>32600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>32700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>33100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>33300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>34400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>45000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>38300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>34300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>36700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>43300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>37200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>39200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>38100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>36100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>40200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>39800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>59800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>55600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>55000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>124000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>55200</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>53900</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>53800</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>83600</v>
+      </c>
+      <c r="E23" s="3">
         <v>67400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>71600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>35200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>41800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>95500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>117000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>95400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>44700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>29700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-27200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>23800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>27300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>41900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>64200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>65400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>83800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>74200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>104400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>41100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>24200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>34000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>51300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>38500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>12700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E24" s="3">
         <v>11400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>12300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-29400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>17300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>11600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>18900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>12200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-16000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-16100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>37500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-539700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>10200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>11500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>11700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>12800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>15900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>17000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>12500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>6000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2059,168 +2108,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>90200</v>
+      </c>
+      <c r="E26" s="3">
         <v>56000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>59300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>37400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>71200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>78200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>105400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>76500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>32500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>45700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-27800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>39900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>25400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>37500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>26700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>605100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>82400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>64000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>92900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>29400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>11400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>18100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>34300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>26000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>6700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E27" s="3">
         <v>51900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>53300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>31000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>62800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>70400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>96500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>67400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>24300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>42000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-22200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>35600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>19400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>35600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>21700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>614000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>75500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>57200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>85900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>24300</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
       <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>13100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>19300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>18500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2299,88 +2357,94 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-200</v>
-      </c>
-      <c r="F29" s="3">
-        <v>-100</v>
       </c>
       <c r="G29" s="3">
         <v>-100</v>
       </c>
       <c r="H29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I29" s="3">
         <v>-200</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>400</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-100</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-200</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-200</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-300</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>100</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>2700</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-300</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-100</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>118800</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>100</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
       <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
         <v>300</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>8600</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2459,8 +2523,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2539,168 +2606,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E32" s="3">
         <v>3100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>8100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1900</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-1200</v>
       </c>
       <c r="J32" s="3">
         <v>-1200</v>
       </c>
       <c r="K32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="L32" s="3">
         <v>-4300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>17400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>10200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>13600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>32500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-5100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>84900</v>
+      </c>
+      <c r="E33" s="3">
         <v>51900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>53100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>30900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>62700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>70200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>96900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>67300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>24300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>41900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-22400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>35600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>19400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>35500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>21500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>613700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>75600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>59900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>85600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>24200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>118800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>13200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>19300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>18800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>9900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2779,173 +2855,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>84900</v>
+      </c>
+      <c r="E35" s="3">
         <v>51900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>53100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>30900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>62700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>70200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>96900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>67300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>24300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>41900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-22400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>35600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>19400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>35500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>21500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>613700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>75600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>59900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>85600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>24200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>118800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>13200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>19300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>18800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>9900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44835</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44744</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44653</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44562</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44471</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44380</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44289</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44198</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44009</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43918</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43827</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43736</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43645</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43554</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43463</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43372</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43099</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42917</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42826</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2974,8 +3059,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3004,88 +3090,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>578400</v>
+      </c>
+      <c r="E41" s="3">
         <v>395300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>393200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>406800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>658200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>540600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>473300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>447400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>521400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>672300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>639700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>626300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>635300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>456100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>411000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>333600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>423400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>296300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>305200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>328500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>564400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>528400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>509500</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3141,356 +3231,371 @@
         <v>0</v>
       </c>
       <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
         <v>1000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>500</v>
       </c>
-      <c r="Z42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>821600</v>
+      </c>
+      <c r="E43" s="3">
         <v>868200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>881900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>823500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>727200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>848700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>879600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>848000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>723600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>743700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>685600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>749700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>716800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>758000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>793400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>817300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>749500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>785500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>816800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>806600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>727900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>745500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>754800</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>656200</v>
+      </c>
+      <c r="E44" s="3">
         <v>686600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>695500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>718300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>682600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>650500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>588500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>536000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>508200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>486400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>498800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>484400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>475100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>507800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>544500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>559700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>537600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>526800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>502100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>492000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>457100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>448300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>422200</v>
       </c>
-      <c r="Z44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>221200</v>
+      </c>
+      <c r="E45" s="3">
         <v>266800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>276400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>258000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>210700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>183200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>181100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>167600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>153400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>143700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>135300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>137500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>131400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>142000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>117000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>125400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>104100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>108600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>98500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>90700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>76300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>90900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>90500</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2277400</v>
+      </c>
+      <c r="E46" s="3">
         <v>2216900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2247000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2206600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2278700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2223000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2122500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1999000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1906600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2046100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1959400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1997900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1958600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1863900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1865900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1836000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1814600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1717200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1723600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1718600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1826200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1813500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1777500</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>14700</v>
+        <v>15100</v>
       </c>
       <c r="E47" s="3">
         <v>14700</v>
@@ -3499,62 +3604,62 @@
         <v>14700</v>
       </c>
       <c r="G47" s="3">
+        <v>14700</v>
+      </c>
+      <c r="H47" s="3">
         <v>15700</v>
-      </c>
-      <c r="H47" s="3">
-        <v>14800</v>
       </c>
       <c r="I47" s="3">
         <v>14800</v>
       </c>
       <c r="J47" s="3">
+        <v>14800</v>
+      </c>
+      <c r="K47" s="3">
         <v>20300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>26500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>20400</v>
-      </c>
-      <c r="M47" s="3">
-        <v>24100</v>
       </c>
       <c r="N47" s="3">
         <v>24100</v>
       </c>
       <c r="O47" s="3">
+        <v>24100</v>
+      </c>
+      <c r="P47" s="3">
         <v>23000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>34200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>28800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>28000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>29500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>33200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>40300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>37400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>33300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>3700</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3564,168 +3669,177 @@
       <c r="AB47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>769700</v>
+      </c>
+      <c r="E48" s="3">
         <v>748400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>747500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>787800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>794500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>805200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>816900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>808000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>825900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>800000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>789400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>801300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>850900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>838400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>870200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>878100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>756300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>761700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>746900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>738900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>686200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>637400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>626300</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3471500</v>
+      </c>
+      <c r="E49" s="3">
         <v>3396900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3518600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3653400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3705200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3749900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3819000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3829300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3908800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3800900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3773800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3767600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3936500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3912300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4006000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4018000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4036500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4115800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4138700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4254600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4212300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>4204800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>4190200</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3804,8 +3918,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3884,88 +4001,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>657900</v>
+      </c>
+      <c r="E52" s="3">
         <v>661800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>670200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>736600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>738900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>713100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>725700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>719800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>758500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>668300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>629600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>593900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>642300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>637100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>659200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>677700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>85700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>90800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>86200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>90600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>95700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>96700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>108100</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4044,88 +4167,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7191600</v>
+      </c>
+      <c r="E54" s="3">
         <v>7038700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7198000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7399100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7533000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7506000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7498900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7376400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7426300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7335700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7176300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7184800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7411300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7285900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7430100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7437800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6722600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6718700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6735700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6840100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6853700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>6756100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>6702100</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4154,8 +4283,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4184,488 +4314,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>469600</v>
+      </c>
+      <c r="E57" s="3">
         <v>453200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>478800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>494500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>506600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>459500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>479700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>439900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>417400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>339400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>317800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>383000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>374700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>328500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>378300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>399800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>424000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>402100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>436000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>423200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>392000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>363200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>363100</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>36600</v>
+      </c>
+      <c r="E58" s="3">
         <v>28200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>37800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>29400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>38100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>29800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>39100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>30300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>43500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>50300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>63500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>54900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>46400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>44400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>41200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>34300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>51600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>32800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>42000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>33700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>66400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>33300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>55200</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>246100</v>
+      </c>
+      <c r="E59" s="3">
         <v>265300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>254900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>264600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>311200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>353100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>322000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>286400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>265400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>264200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>248000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>229800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>237000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>210300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>221800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>207600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>203400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>219500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>220100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>224600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>239400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>238400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>224400</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>752300</v>
+      </c>
+      <c r="E60" s="3">
         <v>746700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>771500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>788500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>855900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>842400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>840800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>756600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>726300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>653900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>629300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>667700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>658100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>583200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>641300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>641700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>679000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>654400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>698100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>681500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>697800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>634900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>642700</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2426400</v>
+      </c>
+      <c r="E61" s="3">
         <v>2467100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2533900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2573200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2526500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2542000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2559600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2629800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2668200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2927800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2906900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2901900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2913700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2910600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2935900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2928900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2953400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2962700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2970400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3013600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3889300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3882800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3854700</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>569300</v>
+      </c>
+      <c r="E62" s="3">
         <v>581400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>589300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>661200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>669200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>720100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>734500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>760000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>846800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>798800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>798400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>773800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>828800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>862100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>870300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>905100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>756500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>774500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>810700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>829900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>838200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>941200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>954700</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4744,8 +4893,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4824,8 +4976,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4904,88 +5059,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4081600</v>
+      </c>
+      <c r="E66" s="3">
         <v>4102700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4239800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4404000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4433300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4489000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4515100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4524800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4620600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4737200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4679000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4700000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4760300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4708500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4819300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4858700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4775200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4780900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4881900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4960600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5839100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5857200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5850600</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5014,8 +5175,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5094,8 +5256,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5174,8 +5339,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5254,8 +5422,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5334,88 +5505,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1482900</v>
+      </c>
+      <c r="E72" s="3">
         <v>1398000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1346100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1414800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1437900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1385800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1315600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1218700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1151400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1127100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1085200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1107600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1072000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1052600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1017100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>995600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>381900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>306600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>246700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>161100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>136900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>18200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>5000</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5494,8 +5671,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5574,8 +5754,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5654,88 +5837,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3110000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2936000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2958200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2995100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3099700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3017000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2983800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2851600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2805700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2598500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2497300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2484800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2651000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2577400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2610800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2579100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1947400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1937800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1853800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1879500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1014600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>898900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>851500</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5814,173 +6003,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44835</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44744</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44653</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44562</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44471</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44380</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44289</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44198</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44009</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43918</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43827</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43736</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43645</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43554</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43463</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43372</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43099</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42917</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42826</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>84900</v>
+      </c>
+      <c r="E81" s="3">
         <v>51900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>53100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>30900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>62700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>70200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>96900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>67300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>24300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>41900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-22400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>35600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>19400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>35500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>21500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>613700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>75600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>59900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>85600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>24200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>118800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>13200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>19300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>18800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>9900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6009,88 +6207,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>53100</v>
+      </c>
+      <c r="E83" s="3">
         <v>53200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>55800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>55100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>55200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>54700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>56900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>55800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>55400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>53600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>54700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>54900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>54800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>55100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>56200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>56100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>55200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>53700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>54600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>55000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>54000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>52000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>106200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>52400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>52200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>53500</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6169,8 +6371,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6249,8 +6454,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6329,8 +6537,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6409,8 +6620,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6489,88 +6703,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>247000</v>
+      </c>
+      <c r="E89" s="3">
         <v>100600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>23600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-105400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>168900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>101700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>135800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-24000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>181500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>55900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>40500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>31100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>203700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>81400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>111500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-47700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>171200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>48400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>120400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-26500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>177300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>62900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>79700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-12500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>171200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>94200</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6599,88 +6819,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-24100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-17500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-17400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-21300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-16100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-22200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-18100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-19200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-15900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-12100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-21600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-13600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-15600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-21300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-23100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-37600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-49500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-55900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-43300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-25600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-32200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-13900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-25100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-14800</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6759,8 +6983,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6839,88 +7066,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-28900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-17600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-25000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-15400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-20000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-21400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-29200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-23900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-16500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-12500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-24600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-22100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-15800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-31700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-29500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-40400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-104300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-69400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-120800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-29200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-70600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-21600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-24100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6949,8 +7182,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7029,8 +7263,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7109,8 +7346,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7189,8 +7429,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7269,244 +7512,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-76100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-49700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-11500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-115800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-34600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-11100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-87800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-15100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-322100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-12800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-16000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-19200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-18200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-13100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-11800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-14100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-28000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-145000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-17100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-19500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-38700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>133200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-16200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-26600</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-19900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-8200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-4700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-5800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>13900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>7400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-12900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-3200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-11500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>5100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>3000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>4700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>11900</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>7800</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-12600</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>183000</v>
+      </c>
+      <c r="E102" s="3">
         <v>2100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-13700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-250900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>117600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>67300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>26000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-74100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-150600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>34000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>13400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-9300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>179300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>45100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>77300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-89700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>126700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-8900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-23400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-235800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>36000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>18900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-17700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>106900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>118300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>57600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GTES_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GTES_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>GTES</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,368 +665,381 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44835</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44744</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44653</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44562</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44471</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44380</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44289</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44198</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43827</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43736</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43645</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43554</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43463</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43372</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43099</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42917</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42826</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>897700</v>
+      </c>
+      <c r="E8" s="3">
         <v>893300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>860700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>906800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>893400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>815600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>862400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>915100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>881300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>794200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>712200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>576500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>710100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>725700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>746600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>809900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>804900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>792100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>828400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>875100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>852000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>781800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>760600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1499300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>730200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>667700</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>675500</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>571500</v>
+      </c>
+      <c r="E9" s="3">
         <v>580300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>543700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>577000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>580900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>528000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>521700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>548300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>535800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>492300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>438300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>372500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>454200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>464300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>474200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>508500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>497600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>482100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>501200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>517600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>516100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>479800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>449800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>894100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>443400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>423300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>408100</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>326200</v>
+      </c>
+      <c r="E10" s="3">
         <v>313000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>317000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>329800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>312500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>287600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>340700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>366800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>345500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>301900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>273900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>204000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>255900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>261400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>272400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>301400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>307300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>310000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>327200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>357500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>335900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>302000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>310800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>605200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>286800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>244400</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>267400</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1056,8 +1069,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1139,8 +1153,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1222,91 +1239,97 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E14" s="3">
         <v>4200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>13400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>8000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>9200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>4000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>15200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>17400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>21700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>4000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-400</v>
-      </c>
-      <c r="S14" s="3">
-        <v>3700</v>
       </c>
       <c r="T14" s="3">
         <v>3700</v>
       </c>
       <c r="U14" s="3">
+        <v>3700</v>
+      </c>
+      <c r="V14" s="3">
         <v>1400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>3700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>4700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>18700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>9600</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>10000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>3800</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>5600</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1388,8 +1411,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1416,174 +1442,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>810400</v>
+      </c>
+      <c r="E17" s="3">
         <v>794200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>756900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>794100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>825000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>739700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>731900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>766000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>752700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>708800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>648300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>573100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>651700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>657700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>669900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>708000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>704700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>672300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>710600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>734200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>733700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>691800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>658000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1291500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>635800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>606200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>594400</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>87300</v>
+      </c>
+      <c r="E18" s="3">
         <v>99100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>103800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>112700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>68400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>75900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>130500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>149100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>128600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>85400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>63900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>58400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>68000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>76700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>101900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>100200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>119800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>117800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>140900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>118300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>90000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>102600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>207800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>94400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>61500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>81100</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1613,423 +1646,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
         <v>25000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-8100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1900</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1200</v>
       </c>
       <c r="K20" s="3">
         <v>1200</v>
       </c>
       <c r="L20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M20" s="3">
         <v>4300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-3400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>3300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-17400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-10200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-13600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-32500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>5100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>141500</v>
+      </c>
+      <c r="E21" s="3">
         <v>177200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>153900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>160400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>122900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>129700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>183300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>207200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>185600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>145100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>121600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>61800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>115400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>125400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>134200</v>
-      </c>
-      <c r="R21" s="3">
-        <v>159600</v>
       </c>
       <c r="S21" s="3">
         <v>159600</v>
       </c>
       <c r="T21" s="3">
+        <v>159600</v>
+      </c>
+      <c r="U21" s="3">
         <v>175100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>168100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>198800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>155900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>133800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>141000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>281500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>146100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>118800</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>136300</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>40800</v>
+      </c>
+      <c r="E22" s="3">
         <v>40500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>33300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>33000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>32600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>32700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>33100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>33300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>34400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>45000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>38300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>34300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>36700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>43300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>37200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>39200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>38100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>36100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>40200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>39800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>59800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>55600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>55000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>124000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>55200</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>53900</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>53800</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>46200</v>
+      </c>
+      <c r="E23" s="3">
         <v>83600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>67400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>71600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>35200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>41800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>95500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>117000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>95400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>44700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>29700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-27200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>23800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>27300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>41900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>64200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>65400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>83800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>74200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>104400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>41100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>24200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>34000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>51300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>38500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>12700</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-6600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>11400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>12300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-2200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-29400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>17300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>11600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>18900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>12200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-16000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-16100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>37500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-539700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>10200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>11500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>11700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>12800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>15900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>17000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>12500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>6000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2111,174 +2160,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E26" s="3">
         <v>90200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>56000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>59300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>37400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>71200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>78200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>105400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>76500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>32500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>45700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-27800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>39900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>25400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>37500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>26700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>605100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>82400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>64000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>92900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>29400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>11400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>18100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>34300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>26000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>6700</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E27" s="3">
         <v>85000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>51900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>53300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>31000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>62800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>70400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>96500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>67400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>24300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>42000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-22200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>35600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>19400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>35600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>21700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>614000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>75500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>57200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>85900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>24300</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
       <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>13100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>19300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>18500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>1300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2360,91 +2418,97 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E29" s="3">
         <v>-100</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-200</v>
-      </c>
-      <c r="G29" s="3">
-        <v>-100</v>
       </c>
       <c r="H29" s="3">
         <v>-100</v>
       </c>
       <c r="I29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J29" s="3">
         <v>-200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-100</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-200</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-200</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-300</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>100</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>2700</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-300</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-100</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>118800</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>100</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
-      </c>
       <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
         <v>300</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>8600</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2526,8 +2590,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2609,174 +2676,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-25000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>8100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1900</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-1200</v>
       </c>
       <c r="K32" s="3">
         <v>-1200</v>
       </c>
       <c r="L32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M32" s="3">
         <v>-4300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>3400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-3300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>17400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>10200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>13600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>32500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-5100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E33" s="3">
         <v>84900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>51900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>53100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>30900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>62700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>70200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>96900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>67300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>24300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>41900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-22400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>35600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>19400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>35500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>21500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>613700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>75600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>59900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>85600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>24200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>118800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>13200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>19300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>18800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>9900</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2858,179 +2934,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E35" s="3">
         <v>84900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>51900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>53100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>30900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>62700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>70200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>96900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>67300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>24300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>41900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-22400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>35600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>19400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>35500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>21500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>613700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>75600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>59900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>85600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>24200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>118800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>13200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>19300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>18800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>9900</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44835</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44744</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44653</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44562</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44471</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44380</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44289</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44198</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43827</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43736</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43645</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43554</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43463</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43372</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43099</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42917</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42826</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3060,8 +3145,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3091,91 +3177,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>594900</v>
+      </c>
+      <c r="E41" s="3">
         <v>578400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>395300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>393200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>406800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>658200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>540600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>473300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>447400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>521400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>672300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>639700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>626300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>635300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>456100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>411000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>333600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>423400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>296300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>305200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>328500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>564400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>528400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>509500</v>
       </c>
-      <c r="AA41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3234,363 +3324,378 @@
         <v>0</v>
       </c>
       <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
         <v>1000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>500</v>
       </c>
-      <c r="AA42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>866400</v>
+      </c>
+      <c r="E43" s="3">
         <v>821600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>868200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>881900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>823500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>727200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>848700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>879600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>848000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>723600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>743700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>685600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>749700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>716800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>758000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>793400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>817300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>749500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>785500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>816800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>806600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>727900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>745500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>754800</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>659100</v>
+      </c>
+      <c r="E44" s="3">
         <v>656200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>686600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>695500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>718300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>682600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>650500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>588500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>536000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>508200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>486400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>498800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>484400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>475100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>507800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>544500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>559700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>537600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>526800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>502100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>492000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>457100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>448300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>422200</v>
       </c>
-      <c r="AA44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>236400</v>
+      </c>
+      <c r="E45" s="3">
         <v>221200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>266800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>276400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>258000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>210700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>183200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>181100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>167600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>153400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>143700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>135300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>137500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>131400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>142000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>117000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>125400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>104100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>108600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>98500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>90700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>76300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>90900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>90500</v>
       </c>
-      <c r="AA45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2356800</v>
+      </c>
+      <c r="E46" s="3">
         <v>2277400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2216900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2247000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2206600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2278700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2223000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2122500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1999000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1906600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2046100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1959400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1997900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1958600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1863900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1865900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1836000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1814600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1717200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1723600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1718600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1826200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1813500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1777500</v>
       </c>
-      <c r="AA46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3598,7 +3703,7 @@
         <v>15100</v>
       </c>
       <c r="E47" s="3">
-        <v>14700</v>
+        <v>15100</v>
       </c>
       <c r="F47" s="3">
         <v>14700</v>
@@ -3607,62 +3712,62 @@
         <v>14700</v>
       </c>
       <c r="H47" s="3">
+        <v>14700</v>
+      </c>
+      <c r="I47" s="3">
         <v>15700</v>
-      </c>
-      <c r="I47" s="3">
-        <v>14800</v>
       </c>
       <c r="J47" s="3">
         <v>14800</v>
       </c>
       <c r="K47" s="3">
+        <v>14800</v>
+      </c>
+      <c r="L47" s="3">
         <v>20300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>26500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>20400</v>
-      </c>
-      <c r="N47" s="3">
-        <v>24100</v>
       </c>
       <c r="O47" s="3">
         <v>24100</v>
       </c>
       <c r="P47" s="3">
+        <v>24100</v>
+      </c>
+      <c r="Q47" s="3">
         <v>23000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>34200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>28800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>28000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>29500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>33200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>40300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>37400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>33300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>3700</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3672,174 +3777,183 @@
       <c r="AC47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>767200</v>
+      </c>
+      <c r="E48" s="3">
         <v>769700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>748400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>747500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>787800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>794500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>805200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>816900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>808000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>825900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>800000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>789400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>801300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>850900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>838400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>870200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>878100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>756300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>761700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>746900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>738900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>686200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>637400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>626300</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3485700</v>
+      </c>
+      <c r="E49" s="3">
         <v>3471500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3396900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3518600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3653400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3705200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3749900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3819000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3829300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3908800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3800900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3773800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3767600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3936500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3912300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4006000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4018000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4036500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4115800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4138700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4254600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>4212300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>4204800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>4190200</v>
       </c>
-      <c r="AA49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3921,8 +4035,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4004,91 +4121,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>657600</v>
+      </c>
+      <c r="E52" s="3">
         <v>657900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>661800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>670200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>736600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>738900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>713100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>725700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>719800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>758500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>668300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>629600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>593900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>642300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>637100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>659200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>677700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>85700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>90800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>86200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>90600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>95700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>96700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>108100</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4170,91 +4293,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7282400</v>
+      </c>
+      <c r="E54" s="3">
         <v>7191600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7038700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7198000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7399100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7533000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7506000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7498900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7376400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7426300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7335700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7176300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7184800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7411300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7285900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7430100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7437800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6722600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6718700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6735700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6840100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>6853700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>6756100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>6702100</v>
       </c>
-      <c r="AA54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4284,8 +4413,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4315,506 +4445,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>452100</v>
+      </c>
+      <c r="E57" s="3">
         <v>469600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>453200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>478800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>494500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>506600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>459500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>479700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>439900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>417400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>339400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>317800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>383000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>374700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>328500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>378300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>399800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>424000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>402100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>436000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>423200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>392000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>363200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>363100</v>
       </c>
-      <c r="AA57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E58" s="3">
         <v>36600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>28200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>37800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>29400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>38100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>29800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>39100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>30300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>43500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>50300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>63500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>54900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>46400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>44400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>41200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>34300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>51600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>32800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>42000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>33700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>66400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>33300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>55200</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>258400</v>
+      </c>
+      <c r="E59" s="3">
         <v>246100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>265300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>254900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>264600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>311200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>353100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>322000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>286400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>265400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>264200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>248000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>229800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>237000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>210300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>221800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>207600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>203400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>219500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>220100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>224600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>239400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>238400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>224400</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>738200</v>
+      </c>
+      <c r="E60" s="3">
         <v>752300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>746700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>771500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>788500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>855900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>842400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>840800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>756600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>726300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>653900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>629300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>667700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>658100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>583200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>641300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>641700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>679000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>654400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>698100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>681500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>697800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>634900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>642700</v>
       </c>
-      <c r="AA60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2423300</v>
+      </c>
+      <c r="E61" s="3">
         <v>2426400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2467100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2533900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2573200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2526500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2542000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2559600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2629800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2668200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2927800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2906900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2901900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2913700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2910600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2935900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2928900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2953400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2962700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2970400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3013600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3889300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3882800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>3854700</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
       <c r="AB61" s="3">
         <v>0</v>
       </c>
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>567300</v>
+      </c>
+      <c r="E62" s="3">
         <v>569300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>581400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>589300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>661200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>669200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>720100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>734500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>760000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>846800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>798800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>798400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>773800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>828800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>862100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>870300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>905100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>756500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>774500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>810700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>829900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>838200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>941200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>954700</v>
       </c>
-      <c r="AA62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4896,8 +5045,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4979,8 +5131,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5062,91 +5217,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4067400</v>
+      </c>
+      <c r="E66" s="3">
         <v>4081600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4102700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4239800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4404000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4433300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4489000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4515100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4524800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4620600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4737200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4679000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4700000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4760300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4708500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4819300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4858700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4775200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4780900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4881900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4960600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5839100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5857200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>5850600</v>
       </c>
-      <c r="AA66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5176,8 +5337,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5259,8 +5421,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5342,8 +5507,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5425,8 +5593,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5508,91 +5679,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1509300</v>
+      </c>
+      <c r="E72" s="3">
         <v>1482900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1398000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1346100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1414800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1437900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1385800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1315600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1218700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1151400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1127100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1085200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1107600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1072000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1052600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1017100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>995600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>381900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>306600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>246700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>161100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>136900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>18200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>5000</v>
       </c>
-      <c r="AA72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5674,8 +5851,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5757,8 +5937,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5840,91 +6023,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3215000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3110000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2936000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2958200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2995100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3099700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3017000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2983800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2851600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2805700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2598500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2497300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2484800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2651000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2577400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2610800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2579100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1947400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1937800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1853800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1879500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1014600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>898900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>851500</v>
       </c>
-      <c r="AA76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6006,179 +6195,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44835</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44744</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44653</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44562</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44471</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44380</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44289</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44198</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43827</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43736</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43645</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43554</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43463</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43372</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43099</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42917</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42826</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E81" s="3">
         <v>84900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>51900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>53100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>30900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>62700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>70200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>96900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>67300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>24300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>41900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-22400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>35600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>19400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>35500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>21500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>613700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>75600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>59900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>85600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>24200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>118800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>13200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>19300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>18800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>9900</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6208,91 +6406,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>54500</v>
+      </c>
+      <c r="E83" s="3">
         <v>53100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>53200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>55800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>55100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>55200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>54700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>56900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>55800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>55400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>53600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>54700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>54900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>54800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>55100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>56200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>56100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>55200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>53700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>54600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>55000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>54000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>52000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>106200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>52400</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>52200</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>53500</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6374,8 +6576,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6457,8 +6662,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6540,8 +6748,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6623,8 +6834,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6706,91 +6920,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>52500</v>
+      </c>
+      <c r="E89" s="3">
         <v>247000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>100600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>23600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-105400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>168900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>101700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>135800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-24000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>181500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>55900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>40500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>31100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>203700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>81400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>111500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-47700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>171200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>48400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>120400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-26500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>177300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>62900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>79700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-12500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>171200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>94200</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6820,91 +7040,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-18600</v>
+        <v>-14600</v>
       </c>
       <c r="E91" s="3">
-        <v>-24100</v>
+        <v>-21300</v>
       </c>
       <c r="F91" s="3">
-        <v>-17500</v>
+        <v>-27600</v>
       </c>
       <c r="G91" s="3">
-        <v>-17400</v>
+        <v>-20100</v>
       </c>
       <c r="H91" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="T91" s="3">
         <v>-21300</v>
       </c>
-      <c r="I91" s="3">
-        <v>-16100</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-22200</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-18100</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-19200</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-15900</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-11000</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-12100</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-21600</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-13600</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-15600</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-21300</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-23100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-37600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-49500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-55900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-43300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-25600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-32200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-13900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-25100</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-14800</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6986,8 +7210,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7069,91 +7296,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-19200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-28900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-17600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-25000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-15400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-20000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-21400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-29200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-23900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-16500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-12500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-24600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-22100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-15800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-31700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-29500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-40400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-104300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-69400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-120800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-29200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-70600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-21600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-24100</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7183,8 +7416,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7266,8 +7500,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7349,8 +7586,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7432,8 +7672,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7515,253 +7758,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-76100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-49700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-11500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-115800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-34600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-11100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-87800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-15100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-322100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-12800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-16000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-19200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-8800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-18200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-13100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-11800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-14100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-28000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-145000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-17100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-19500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-38700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>133200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-16200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-26600</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E101" s="3">
         <v>31300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-19900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-8200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-4700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-5800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>13900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>7400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-12900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-5400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-3200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-11500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>5100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>3000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>4700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>11900</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>7800</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-12600</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E102" s="3">
         <v>183000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-13700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-250900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>117600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>67300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>26000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-74100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-150600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>34000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>13400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-9300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>179300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>45100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>77300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-89700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>126700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-8900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-23400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-235800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>36000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>18900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-17700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>106900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>118300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>57600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GTES_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GTES_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>GTES</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,381 +665,393 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="2">
         <v>45017</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44835</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44744</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44653</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44562</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44471</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44380</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44289</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44198</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44009</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43918</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43827</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43736</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43645</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43554</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43463</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43372</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43099</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42917</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42826</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>936300</v>
+      </c>
+      <c r="E8" s="3">
         <v>897700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>893300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>860700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>906800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>893400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>815600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>862400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>915100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>881300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>794200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>712200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>576500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>710100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>725700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>746600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>809900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>804900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>792100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>828400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>875100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>852000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>781800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>760600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1499300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>730200</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>667700</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>675500</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>586400</v>
+      </c>
+      <c r="E9" s="3">
         <v>571500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>580300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>543700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>577000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>580900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>528000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>521700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>548300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>535800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>492300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>438300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>372500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>454200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>464300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>474200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>508500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>497600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>482100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>501200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>517600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>516100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>479800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>449800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>894100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>443400</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>423300</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>408100</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>349900</v>
+      </c>
+      <c r="E10" s="3">
         <v>326200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>313000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>317000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>329800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>312500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>287600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>340700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>366800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>345500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>301900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>273900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>204000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>255900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>261400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>272400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>301400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>307300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>310000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>327200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>357500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>335900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>302000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>310800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>605200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>286800</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>244400</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>267400</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1070,8 +1082,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1156,8 +1169,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1242,94 +1258,100 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>700</v>
+      </c>
+      <c r="E14" s="3">
         <v>17500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>13400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>8000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>9200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>15200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>17400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>21700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>4000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-400</v>
-      </c>
-      <c r="T14" s="3">
-        <v>3700</v>
       </c>
       <c r="U14" s="3">
         <v>3700</v>
       </c>
       <c r="V14" s="3">
+        <v>3700</v>
+      </c>
+      <c r="W14" s="3">
         <v>1400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>3700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>4700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>18700</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>9600</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>10000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>3800</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>5600</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1414,8 +1436,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1443,180 +1468,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>807200</v>
+      </c>
+      <c r="E17" s="3">
         <v>810400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>794200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>756900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>794100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>825000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>739700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>731900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>766000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>752700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>708800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>648300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>573100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>651700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>657700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>669900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>708000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>704700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>672300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>710600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>734200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>733700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>691800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>658000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1291500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>635800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>606200</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>594400</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>129100</v>
+      </c>
+      <c r="E18" s="3">
         <v>87300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>99100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>103800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>112700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>68400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>75900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>130500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>149100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>128600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>85400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>63900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>58400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>68000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>76700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>101900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>100200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>119800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>117800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>140900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>118300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>90000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>102600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>207800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>94400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>61500</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>81100</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1647,438 +1679,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>25000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-8100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1900</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1200</v>
       </c>
       <c r="L20" s="3">
         <v>1200</v>
       </c>
       <c r="M20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N20" s="3">
         <v>4300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-3400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>3300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-17400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-10200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-13600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-32500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-700</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>5100</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>179400</v>
+      </c>
+      <c r="E21" s="3">
         <v>141500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>177200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>153900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>160400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>122900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>129700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>183300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>207200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>185600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>145100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>121600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>61800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>115400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>125400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>134200</v>
-      </c>
-      <c r="S21" s="3">
-        <v>159600</v>
       </c>
       <c r="T21" s="3">
         <v>159600</v>
       </c>
       <c r="U21" s="3">
+        <v>159600</v>
+      </c>
+      <c r="V21" s="3">
         <v>175100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>168100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>198800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>155900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>133800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>141000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>281500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>146100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>118800</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>136300</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E22" s="3">
         <v>40800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>40500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>33300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>33000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>32600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>32700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>33100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>33300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>34400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>45000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>38300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>34300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>36700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>43300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>37200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>39200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>38100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>36100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>40200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>39800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>59800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>55600</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>55000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>124000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>55200</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>53900</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>53800</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>80900</v>
+      </c>
+      <c r="E23" s="3">
         <v>46200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>83600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>67400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>71600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>35200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>41800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>95500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>117000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>95400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>44700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>29700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-27200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>23800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>27300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>41900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>64200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>65400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>83800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>74200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>104400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>41100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>24200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>34000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>51300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>38500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>12700</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E24" s="3">
         <v>15300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-6600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>11400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>12300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-2200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-29400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>17300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>18900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>12200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-16000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-16100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>37500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-539700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>10200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>11500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>11700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>12800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>15900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>17000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>12500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>6000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2163,180 +2211,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>71300</v>
+      </c>
+      <c r="E26" s="3">
         <v>30900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>90200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>56000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>59300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>37400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>71200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>78200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>105400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>76500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>32500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>45700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-27800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>39900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>25400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>37500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>26700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>605100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>82400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>64000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>92900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>29400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>11400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>18100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>34300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>26000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>6700</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E27" s="3">
         <v>26700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>85000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>51900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>53300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>31000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>62800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>70400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>96500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>67400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>24300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>42000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-22200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>35600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>19400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>35600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>21700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>614000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>75500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>57200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>85900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>24300</v>
       </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
       <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
         <v>13100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>19300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>18500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>1300</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2421,94 +2478,100 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E29" s="3">
         <v>-300</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-100</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-200</v>
-      </c>
-      <c r="H29" s="3">
-        <v>-100</v>
       </c>
       <c r="I29" s="3">
         <v>-100</v>
       </c>
       <c r="J29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K29" s="3">
         <v>-200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-100</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-200</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-200</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-300</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>100</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>2700</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-300</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-100</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>118800</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>100</v>
       </c>
-      <c r="AA29" s="3">
-        <v>0</v>
-      </c>
       <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
         <v>300</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>8600</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2593,8 +2656,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2679,180 +2745,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-25000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>8100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1900</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-1200</v>
       </c>
       <c r="L32" s="3">
         <v>-1200</v>
       </c>
       <c r="M32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="N32" s="3">
         <v>-4300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>3400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-3300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>17400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>10200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>13600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>32500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>700</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-5100</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>64900</v>
+      </c>
+      <c r="E33" s="3">
         <v>26400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>84900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>51900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>53100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>30900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>62700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>70200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>96900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>67300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>24300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>41900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-22400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>35600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>19400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>35500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>21500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>613700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>75600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>59900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>85600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>24200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>118800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>13200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>19300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>18800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>9900</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2937,185 +3012,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>64900</v>
+      </c>
+      <c r="E35" s="3">
         <v>26400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>84900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>51900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>53100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>30900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>62700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>70200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>96900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>67300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>24300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>41900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-22400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>35600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>19400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>35500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>21500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>613700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>75600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>59900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>85600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>24200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>118800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>13200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>19300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>18800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>9900</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E38" s="2">
         <v>45017</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44835</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44744</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44653</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44562</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44471</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44380</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44289</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44198</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44009</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43918</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43827</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43736</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43645</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43554</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43463</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43372</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43099</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42917</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42826</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3146,8 +3230,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3178,94 +3263,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>565000</v>
+      </c>
+      <c r="E41" s="3">
         <v>594900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>578400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>395300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>393200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>406800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>658200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>540600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>473300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>447400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>521400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>672300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>639700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>626300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>635300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>456100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>411000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>333600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>423400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>296300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>305200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>328500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>564400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>528400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>509500</v>
       </c>
-      <c r="AB41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AC41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AD41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3327,375 +3416,390 @@
         <v>0</v>
       </c>
       <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
         <v>1000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>500</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>400</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>500</v>
       </c>
-      <c r="AB42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AC42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AD42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>914600</v>
+      </c>
+      <c r="E43" s="3">
         <v>866400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>821600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>868200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>881900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>823500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>727200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>848700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>879600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>848000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>723600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>743700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>685600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>749700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>716800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>758000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>793400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>817300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>749500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>785500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>816800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>806600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>727900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>745500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>754800</v>
       </c>
-      <c r="AB43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AC43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AD43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>644400</v>
+      </c>
+      <c r="E44" s="3">
         <v>659100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>656200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>686600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>695500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>718300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>682600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>650500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>588500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>536000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>508200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>486400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>498800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>484400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>475100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>507800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>544500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>559700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>537600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>526800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>502100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>492000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>457100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>448300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>422200</v>
       </c>
-      <c r="AB44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AC44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AD44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>250400</v>
+      </c>
+      <c r="E45" s="3">
         <v>236400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>221200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>266800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>276400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>258000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>210700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>183200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>181100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>167600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>153400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>143700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>135300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>137500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>131400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>142000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>117000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>125400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>104100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>108600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>98500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>90700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>76300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>90900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>90500</v>
       </c>
-      <c r="AB45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AC45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AD45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2374400</v>
+      </c>
+      <c r="E46" s="3">
         <v>2356800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2277400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2216900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2247000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2206600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2278700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2223000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2122500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1999000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1906600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2046100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1959400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1997900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1958600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1863900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1865900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1836000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1814600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1717200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1723600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1718600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1826200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1813500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1777500</v>
       </c>
-      <c r="AB46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AC46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AD46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3706,7 +3810,7 @@
         <v>15100</v>
       </c>
       <c r="F47" s="3">
-        <v>14700</v>
+        <v>15100</v>
       </c>
       <c r="G47" s="3">
         <v>14700</v>
@@ -3715,62 +3819,62 @@
         <v>14700</v>
       </c>
       <c r="I47" s="3">
+        <v>14700</v>
+      </c>
+      <c r="J47" s="3">
         <v>15700</v>
-      </c>
-      <c r="J47" s="3">
-        <v>14800</v>
       </c>
       <c r="K47" s="3">
         <v>14800</v>
       </c>
       <c r="L47" s="3">
+        <v>14800</v>
+      </c>
+      <c r="M47" s="3">
         <v>20300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>26500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>20400</v>
-      </c>
-      <c r="O47" s="3">
-        <v>24100</v>
       </c>
       <c r="P47" s="3">
         <v>24100</v>
       </c>
       <c r="Q47" s="3">
+        <v>24100</v>
+      </c>
+      <c r="R47" s="3">
         <v>23000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>34200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>28800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>28000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>29500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>33200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>40300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>37400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>33300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>3700</v>
       </c>
-      <c r="AA47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3780,180 +3884,189 @@
       <c r="AD47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>760000</v>
+      </c>
+      <c r="E48" s="3">
         <v>767200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>769700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>748400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>747500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>787800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>794500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>805200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>816900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>808000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>825900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>800000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>789400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>801300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>850900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>838400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>870200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>878100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>756300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>761700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>746900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>738900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>686200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>637400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>626300</v>
       </c>
-      <c r="AB48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AC48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AD48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3456500</v>
+      </c>
+      <c r="E49" s="3">
         <v>3485700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3471500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3396900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3518600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3653400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3705200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3749900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3819000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3829300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3908800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3800900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3773800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3767600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3936500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3912300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4006000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4018000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4036500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4115800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4138700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>4254600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>4212300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>4204800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>4190200</v>
       </c>
-      <c r="AB49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AC49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AD49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4038,8 +4151,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4124,94 +4240,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>670900</v>
+      </c>
+      <c r="E52" s="3">
         <v>657600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>657900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>661800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>670200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>736600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>738900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>713100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>725700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>719800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>758500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>668300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>629600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>593900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>642300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>637100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>659200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>677700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>85700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>90800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>86200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>90600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>95700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>96700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>108100</v>
       </c>
-      <c r="AB52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AC52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AD52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4296,94 +4418,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7276900</v>
+      </c>
+      <c r="E54" s="3">
         <v>7282400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7191600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7038700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7198000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7399100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7533000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7506000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7498900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7376400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7426300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7335700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7176300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7184800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7411300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7285900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7430100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7437800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6722600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6718700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6735700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>6840100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>6853700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>6756100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>6702100</v>
       </c>
-      <c r="AB54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AC54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AD54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4414,8 +4542,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4446,524 +4575,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>470700</v>
+      </c>
+      <c r="E57" s="3">
         <v>452100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>469600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>453200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>478800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>494500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>506600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>459500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>479700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>439900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>417400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>339400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>317800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>383000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>374700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>328500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>378300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>399800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>424000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>402100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>436000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>423200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>392000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>363200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>363100</v>
       </c>
-      <c r="AB57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AC57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AD57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E58" s="3">
         <v>27700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>36600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>28200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>37800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>29400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>38100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>29800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>39100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>30300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>43500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>50300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>63500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>54900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>46400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>44400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>41200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>34300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>51600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>32800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>42000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>33700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>66400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>33300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>55200</v>
       </c>
-      <c r="AB58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AC58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AD58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>290800</v>
+      </c>
+      <c r="E59" s="3">
         <v>258400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>246100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>265300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>254900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>264600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>311200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>353100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>322000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>286400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>265400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>264200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>248000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>229800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>237000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>210300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>221800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>207600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>203400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>219500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>220100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>224600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>239400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>238400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>224400</v>
       </c>
-      <c r="AB59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AC59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AD59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>798200</v>
+      </c>
+      <c r="E60" s="3">
         <v>738200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>752300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>746700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>771500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>788500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>855900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>842400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>840800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>756600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>726300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>653900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>629300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>667700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>658100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>583200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>641300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>641700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>679000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>654400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>698100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>681500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>697800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>634900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>642700</v>
       </c>
-      <c r="AB60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AC60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AD60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2520600</v>
+      </c>
+      <c r="E61" s="3">
         <v>2423300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2426400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2467100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2533900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2573200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2526500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2542000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2559600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2629800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2668200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2927800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2906900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2901900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2913700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2910600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2935900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2928900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2953400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2962700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2970400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3013600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3889300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>3882800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>3854700</v>
       </c>
-      <c r="AB61" s="3">
-        <v>0</v>
-      </c>
       <c r="AC61" s="3">
         <v>0</v>
       </c>
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>567100</v>
+      </c>
+      <c r="E62" s="3">
         <v>567300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>569300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>581400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>589300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>661200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>669200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>720100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>734500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>760000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>846800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>798800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>798400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>773800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>828800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>862100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>870300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>905100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>756500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>774500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>810700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>829900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>838200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>941200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>954700</v>
       </c>
-      <c r="AB62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AC62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AD62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5048,8 +5196,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5134,8 +5285,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5220,94 +5374,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4206500</v>
+      </c>
+      <c r="E66" s="3">
         <v>4067400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4081600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4102700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4239800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4404000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4433300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4489000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4515100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4524800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4620600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4737200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4679000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4700000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4760300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4708500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4819300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4858700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4775200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4780900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4881900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4960600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5839100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>5857200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>5850600</v>
       </c>
-      <c r="AB66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AC66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AD66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5338,8 +5498,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5424,8 +5585,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5510,8 +5674,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5596,8 +5763,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5682,94 +5852,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1320600</v>
+      </c>
+      <c r="E72" s="3">
         <v>1509300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1482900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1398000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1346100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1414800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1437900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1385800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1315600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1218700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1151400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1127100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1085200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1107600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1072000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1052600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1017100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>995600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>381900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>306600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>246700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>161100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>136900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>18200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>5000</v>
       </c>
-      <c r="AB72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AC72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AD72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5854,8 +6030,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5940,8 +6119,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6026,94 +6208,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3070400</v>
+      </c>
+      <c r="E76" s="3">
         <v>3215000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3110000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2936000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2958200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2995100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3099700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3017000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2983800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2851600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2805700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2598500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2497300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2484800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2651000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2577400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2610800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2579100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1947400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1937800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1853800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1879500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1014600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>898900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>851500</v>
       </c>
-      <c r="AB76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AC76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AD76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6198,185 +6386,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E80" s="2">
         <v>45017</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44835</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44744</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44653</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44562</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44471</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44380</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44289</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44198</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44009</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43918</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43827</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43736</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43645</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43554</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43463</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43372</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43099</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42917</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42826</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>64900</v>
+      </c>
+      <c r="E81" s="3">
         <v>26400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>84900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>51900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>53100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>30900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>62700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>70200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>96900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>67300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>24300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>41900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-22400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>35600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>19400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>35500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>21500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>613700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>75600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>59900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>85600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>24200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>118800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>13200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>19300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>18800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>9900</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6407,94 +6604,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E83" s="3">
         <v>54500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>53100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>53200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>55800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>55100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>55200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>54700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>56900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>55800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>55400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>53600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>54700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>54900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>54800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>55100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>56200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>56100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>55200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>53700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>54600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>55000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>54000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>52000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>106200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>52400</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>52200</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>53500</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6579,8 +6780,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6665,8 +6869,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6751,8 +6958,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6837,8 +7047,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6923,94 +7136,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>131400</v>
+      </c>
+      <c r="E89" s="3">
         <v>52500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>247000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>100600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>23600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-105400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>168900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>101700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>135800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-24000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>181500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>55900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>40500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>31100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>203700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>81400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>111500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-47700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>171200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>48400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>120400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-26500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>177300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>62900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>79700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-12500</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>171200</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>94200</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7041,94 +7260,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-14600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-21300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-27600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-20100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-18000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-23000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-20000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-22200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-18100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-19200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-15900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-11000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-12100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-21600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-13600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-15600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-21300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-23100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-37600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-49500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-55900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-43300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-25600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-32200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-13900</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-25100</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-14800</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7213,8 +7436,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7299,94 +7525,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-29900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-19200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-28900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-17600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-25000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-15400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-20000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-21400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-29200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-23900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-16500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-12500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-24600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-22100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-15800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-31700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-29500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-40400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-104300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-69400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-120800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-29200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-70600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-21600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-24100</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7417,8 +7649,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7503,8 +7736,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7589,8 +7825,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7675,8 +7914,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7761,262 +8003,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-158300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-76100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-49700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-11500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-115800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-34600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-11100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-87800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-15100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-322100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-12800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-16000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-19200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-8800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-18200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-13100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-11800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-14100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-28000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-145000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-17100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-19500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-38700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>133200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-16200</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-26600</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-4100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>31300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-19900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-8200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-4700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>13900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>7400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-12900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-5400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-3200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-2800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-11500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>5100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>3000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>4700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>11900</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>7800</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-12600</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="E102" s="3">
         <v>16400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>183000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-13700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-250900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>117600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>67300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>26000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-74100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-150600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>34000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>13400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>179300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>45100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>77300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-89700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>126700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-8900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-23400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-235800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>36000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>18900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-17700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>106900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>118300</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>57600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GTES_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GTES_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>GTES</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,393 +665,406 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45108</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45017</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44835</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44744</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44653</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44562</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44471</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44380</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44289</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44198</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43918</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43827</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43736</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43645</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43554</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43463</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43372</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43099</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42917</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42826</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>872900</v>
+      </c>
+      <c r="E8" s="3">
         <v>936300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>897700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>893300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>860700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>906800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>893400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>815600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>862400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>915100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>881300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>794200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>712200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>576500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>710100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>725700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>746600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>809900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>804900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>792100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>828400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>875100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>852000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>781800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>760600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1499300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>730200</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>667700</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>675500</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>536300</v>
+      </c>
+      <c r="E9" s="3">
         <v>586400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>571500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>580300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>543700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>577000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>580900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>528000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>521700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>548300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>535800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>492300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>438300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>372500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>454200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>464300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>474200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>508500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>497600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>482100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>501200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>517600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>516100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>479800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>449800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>894100</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>443400</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>423300</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>408100</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>336600</v>
+      </c>
+      <c r="E10" s="3">
         <v>349900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>326200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>313000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>317000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>329800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>312500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>287600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>340700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>366800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>345500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>301900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>273900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>204000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>255900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>261400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>272400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>301400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>307300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>310000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>327200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>357500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>335900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>302000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>310800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>605200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>286800</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>244400</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>267400</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1083,8 +1096,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1172,8 +1186,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1261,97 +1278,103 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E14" s="3">
         <v>700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>17500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>4200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>13400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>8000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>9200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>15200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>17400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>21700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>4000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-400</v>
-      </c>
-      <c r="U14" s="3">
-        <v>3700</v>
       </c>
       <c r="V14" s="3">
         <v>3700</v>
       </c>
       <c r="W14" s="3">
+        <v>3700</v>
+      </c>
+      <c r="X14" s="3">
         <v>1400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>3700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>4700</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>18700</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>9600</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>10000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>3800</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>5600</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1439,8 +1462,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1469,186 +1495,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>747000</v>
+      </c>
+      <c r="E17" s="3">
         <v>807200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>810400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>794200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>756900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>794100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>825000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>739700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>731900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>766000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>752700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>708800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>648300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>573100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>651700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>657700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>669900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>708000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>704700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>672300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>710600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>734200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>733700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>691800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>658000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1291500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>635800</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>606200</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>594400</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>125900</v>
+      </c>
+      <c r="E18" s="3">
         <v>129100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>87300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>99100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>103800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>112700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>68400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>75900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>130500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>149100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>128600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>85400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>63900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>58400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>68000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>76700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>101900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>100200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>119800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>117800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>140900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>118300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>90000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>102600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>207800</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>94400</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>61500</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>81100</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1680,453 +1713,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>25000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-8100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1900</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1200</v>
       </c>
       <c r="M20" s="3">
         <v>1200</v>
       </c>
       <c r="N20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O20" s="3">
         <v>4300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-3400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>3300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-17400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-10200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-13600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-32500</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-700</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>5100</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>180100</v>
+      </c>
+      <c r="E21" s="3">
         <v>179400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>141500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>177200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>153900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>160400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>122900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>129700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>183300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>207200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>185600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>145100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>121600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>61800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>115400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>125400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>134200</v>
-      </c>
-      <c r="T21" s="3">
-        <v>159600</v>
       </c>
       <c r="U21" s="3">
         <v>159600</v>
       </c>
       <c r="V21" s="3">
+        <v>159600</v>
+      </c>
+      <c r="W21" s="3">
         <v>175100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>168100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>198800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>155900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>133800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>141000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>281500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>146100</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>118800</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>136300</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E22" s="3">
         <v>44500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>40800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>40500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>33300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>33000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>32600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>32700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>33100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>33300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>34400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>45000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>38300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>34300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>36700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>43300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>37200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>39200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>38100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>36100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>40200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>39800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>59800</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>55600</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>55000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>124000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>55200</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>53900</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>53800</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>86600</v>
+      </c>
+      <c r="E23" s="3">
         <v>80900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>46200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>83600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>67400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>71600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>35200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>41800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>95500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>117000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>95400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>44700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>29700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-27200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>23800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>27300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>41900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>64200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>65400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>83800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>74200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>104400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>41100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>24200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>34000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>51300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>38500</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>12700</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>9600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>15300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-6600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>11400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>12300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-29400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>17300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>11600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>18900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>12200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-16000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-16100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>37500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-539700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>10200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>11500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>11700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>12800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>15900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>17000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>12500</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>6000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2214,186 +2263,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>85600</v>
+      </c>
+      <c r="E26" s="3">
         <v>71300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>30900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>90200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>56000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>59300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>37400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>71200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>78200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>105400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>76500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>32500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>45700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-27800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>39900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>25400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>37500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>26700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>605100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>82400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>64000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>92900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>29400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>11400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>18100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>34300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>26000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>6700</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>78800</v>
+      </c>
+      <c r="E27" s="3">
         <v>65000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>26700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>85000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>51900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>53300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>31000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>62800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>70400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>96500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>67400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>24300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>42000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-22200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>35600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>19400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>35600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>21700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>614000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>75500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>57200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>85900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>24300</v>
       </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
       <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
         <v>13100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>19300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>18500</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>1300</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2481,8 +2539,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2490,88 +2551,91 @@
         <v>-100</v>
       </c>
       <c r="E29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F29" s="3">
         <v>-300</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-100</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-200</v>
-      </c>
-      <c r="I29" s="3">
-        <v>-100</v>
       </c>
       <c r="J29" s="3">
         <v>-100</v>
       </c>
       <c r="K29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L29" s="3">
         <v>-200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-100</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-200</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-100</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-200</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-300</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>100</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>2700</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-300</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-100</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>118800</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>100</v>
       </c>
-      <c r="AB29" s="3">
-        <v>0</v>
-      </c>
       <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
         <v>300</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>8600</v>
       </c>
-      <c r="AE29" s="3">
+      <c r="AF29" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2659,8 +2723,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2748,186 +2815,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>3700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-25000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>8100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1900</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-1200</v>
       </c>
       <c r="M32" s="3">
         <v>-1200</v>
       </c>
       <c r="N32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O32" s="3">
         <v>-4300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>3400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>17400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>10200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>13600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>32500</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>700</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-5100</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>78700</v>
+      </c>
+      <c r="E33" s="3">
         <v>64900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>26400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>84900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>51900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>53100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>30900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>62700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>70200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>96900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>67300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>24300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>41900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-22400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>35600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>19400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>35500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>21500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>613700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>75600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>59900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>85600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>24200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>118800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>13200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>19300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>18800</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>9900</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3015,191 +3091,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>78700</v>
+      </c>
+      <c r="E35" s="3">
         <v>64900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>26400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>84900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>51900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>53100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>30900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>62700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>70200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>96900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>67300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>24300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>41900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-22400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>35600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>19400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>35500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>21500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>613700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>75600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>59900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>85600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>24200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>118800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>13200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>19300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>18800</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>9900</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45108</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45017</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44835</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44744</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44653</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44562</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44471</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44380</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44289</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44198</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43918</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43827</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43736</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43645</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43554</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43463</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43372</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43099</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42917</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42826</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3231,8 +3316,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3264,97 +3350,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>556800</v>
+      </c>
+      <c r="E41" s="3">
         <v>565000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>594900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>578400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>395300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>393200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>406800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>658200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>540600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>473300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>447400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>521400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>672300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>639700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>626300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>635300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>456100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>411000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>333600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>423400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>296300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>305200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>328500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>564400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>528400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>509500</v>
       </c>
-      <c r="AC41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AD41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AE41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3419,387 +3509,402 @@
         <v>0</v>
       </c>
       <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
         <v>1000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>500</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>400</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>500</v>
       </c>
-      <c r="AC42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AD42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AE42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>871900</v>
+      </c>
+      <c r="E43" s="3">
         <v>914600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>866400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>821600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>868200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>881900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>823500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>727200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>848700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>879600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>848000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>723600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>743700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>685600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>749700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>716800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>758000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>793400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>817300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>749500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>785500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>816800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>806600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>727900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>745500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>754800</v>
       </c>
-      <c r="AC43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AD43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AE43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>646100</v>
+      </c>
+      <c r="E44" s="3">
         <v>644400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>659100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>656200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>686600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>695500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>718300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>682600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>650500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>588500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>536000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>508200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>486400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>498800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>484400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>475100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>507800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>544500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>559700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>537600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>526800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>502100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>492000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>457100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>448300</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>422200</v>
       </c>
-      <c r="AC44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AD44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AE44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>243100</v>
+      </c>
+      <c r="E45" s="3">
         <v>250400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>236400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>221200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>266800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>276400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>258000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>210700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>183200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>181100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>167600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>153400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>143700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>135300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>137500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>131400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>142000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>117000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>125400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>104100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>108600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>98500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>90700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>76300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>90900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>90500</v>
       </c>
-      <c r="AC45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AD45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AE45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2317900</v>
+      </c>
+      <c r="E46" s="3">
         <v>2374400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2356800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2277400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2216900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2247000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2206600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2278700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2223000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2122500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1999000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1906600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2046100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1959400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1997900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1958600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1863900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1865900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1836000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1814600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1717200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1723600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1718600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1826200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1813500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1777500</v>
       </c>
-      <c r="AC46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AD46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AE46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3813,7 +3918,7 @@
         <v>15100</v>
       </c>
       <c r="G47" s="3">
-        <v>14700</v>
+        <v>15100</v>
       </c>
       <c r="H47" s="3">
         <v>14700</v>
@@ -3822,62 +3927,62 @@
         <v>14700</v>
       </c>
       <c r="J47" s="3">
+        <v>14700</v>
+      </c>
+      <c r="K47" s="3">
         <v>15700</v>
-      </c>
-      <c r="K47" s="3">
-        <v>14800</v>
       </c>
       <c r="L47" s="3">
         <v>14800</v>
       </c>
       <c r="M47" s="3">
+        <v>14800</v>
+      </c>
+      <c r="N47" s="3">
         <v>20300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>26500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>20400</v>
-      </c>
-      <c r="P47" s="3">
-        <v>24100</v>
       </c>
       <c r="Q47" s="3">
         <v>24100</v>
       </c>
       <c r="R47" s="3">
+        <v>24100</v>
+      </c>
+      <c r="S47" s="3">
         <v>23000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>34200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>28800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>28000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>29500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>33200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>40300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>37400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>33300</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>3700</v>
       </c>
-      <c r="AB47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AC47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3887,186 +3992,195 @@
       <c r="AE47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>737000</v>
+      </c>
+      <c r="E48" s="3">
         <v>760000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>767200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>769700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>748400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>747500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>787800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>794500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>805200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>816900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>808000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>825900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>800000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>789400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>801300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>850900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>838400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>870200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>878100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>756300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>761700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>746900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>738900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>686200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>637400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>626300</v>
       </c>
-      <c r="AC48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AD48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AE48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3383900</v>
+      </c>
+      <c r="E49" s="3">
         <v>3456500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3485700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3471500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3396900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3518600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3653400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3705200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3749900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3819000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3829300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3908800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3800900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3773800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3767600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3936500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3912300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4006000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4018000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4036500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4115800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>4138700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>4254600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>4212300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>4204800</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>4190200</v>
       </c>
-      <c r="AC49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AD49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AE49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4154,8 +4268,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4243,97 +4360,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>655400</v>
+      </c>
+      <c r="E52" s="3">
         <v>670900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>657600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>657900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>661800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>670200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>736600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>738900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>713100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>725700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>719800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>758500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>668300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>629600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>593900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>642300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>637100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>659200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>677700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>85700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>90800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>86200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>90600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>95700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>96700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>108100</v>
       </c>
-      <c r="AC52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AD52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AE52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4421,97 +4544,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7109300</v>
+      </c>
+      <c r="E54" s="3">
         <v>7276900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7282400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7191600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7038700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7198000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7399100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7533000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7506000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7498900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7376400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7426300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7335700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7176300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7184800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7411300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7285900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7430100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7437800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6722600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6718700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>6735700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>6840100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>6853700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>6756100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>6702100</v>
       </c>
-      <c r="AC54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AD54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AE54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4543,8 +4672,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4576,542 +4706,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>441100</v>
+      </c>
+      <c r="E57" s="3">
         <v>470700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>452100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>469600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>453200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>478800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>494500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>506600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>459500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>479700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>439900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>417400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>339400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>317800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>383000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>374700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>328500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>378300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>399800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>424000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>402100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>436000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>423200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>392000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>363200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>363100</v>
       </c>
-      <c r="AC57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AD57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AE57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E58" s="3">
         <v>36700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>27700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>36600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>28200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>37800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>29400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>38100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>29800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>39100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>30300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>43500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>50300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>63500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>54900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>46400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>44400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>41200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>34300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>51600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>32800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>42000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>33700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>66400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>33300</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>55200</v>
       </c>
-      <c r="AC58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AD58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AE58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>311600</v>
+      </c>
+      <c r="E59" s="3">
         <v>290800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>258400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>246100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>265300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>254900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>264600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>311200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>353100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>322000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>286400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>265400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>264200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>248000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>229800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>237000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>210300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>221800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>207600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>203400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>219500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>220100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>224600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>239400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>238400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>224400</v>
       </c>
-      <c r="AC59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AD59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AE59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>780400</v>
+      </c>
+      <c r="E60" s="3">
         <v>798200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>738200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>752300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>746700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>771500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>788500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>855900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>842400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>840800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>756600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>726300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>653900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>629300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>667700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>658100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>583200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>641300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>641700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>679000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>654400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>698100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>681500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>697800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>634900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>642700</v>
       </c>
-      <c r="AC60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AD60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AE60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2417700</v>
+      </c>
+      <c r="E61" s="3">
         <v>2520600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2423300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2426400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2467100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2533900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2573200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2526500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2542000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2559600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2629800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2668200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2927800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2906900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2901900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2913700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2910600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2935900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2928900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2953400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2962700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2970400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3013600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>3889300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>3882800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>3854700</v>
       </c>
-      <c r="AC61" s="3">
-        <v>0</v>
-      </c>
       <c r="AD61" s="3">
         <v>0</v>
       </c>
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>498900</v>
+      </c>
+      <c r="E62" s="3">
         <v>567100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>567300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>569300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>581400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>589300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>661200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>669200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>720100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>734500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>760000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>846800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>798800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>798400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>773800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>828800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>862100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>870300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>905100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>756500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>774500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>810700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>829900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>838200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>941200</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>954700</v>
       </c>
-      <c r="AC62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AD62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AE62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5199,8 +5348,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5288,8 +5440,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5377,97 +5532,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4018100</v>
+      </c>
+      <c r="E66" s="3">
         <v>4206500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4067400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4081600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4102700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4239800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4404000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4433300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4489000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4515100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4524800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4620600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4737200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4679000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4700000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4760300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4708500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4819300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4858700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4775200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4780900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4881900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4960600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>5839100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>5857200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>5850600</v>
       </c>
-      <c r="AC66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AD66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AE66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5499,8 +5660,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5588,8 +5750,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5677,8 +5842,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5766,8 +5934,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5855,97 +6026,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1399300</v>
+      </c>
+      <c r="E72" s="3">
         <v>1320600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1509300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1482900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1398000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1346100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1414800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1437900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1385800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1315600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1218700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1151400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1127100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1085200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1107600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1072000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1052600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1017100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>995600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>381900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>306600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>246700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>161100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>136900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>18200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>5000</v>
       </c>
-      <c r="AC72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AD72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AE72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6033,8 +6210,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6122,8 +6302,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6211,97 +6394,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3091200</v>
+      </c>
+      <c r="E76" s="3">
         <v>3070400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3215000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3110000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2936000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2958200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2995100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3099700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3017000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2983800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2851600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2805700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2598500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2497300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2484800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2651000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2577400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2610800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2579100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1947400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1937800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1853800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1879500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1014600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>898900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>851500</v>
       </c>
-      <c r="AC76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AD76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AE76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6389,191 +6578,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45108</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45017</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44835</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44744</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44653</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44562</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44471</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44380</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44289</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44198</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43918</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43827</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43736</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43645</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43554</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43463</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43372</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43099</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42917</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42826</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>78700</v>
+      </c>
+      <c r="E81" s="3">
         <v>64900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>26400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>84900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>51900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>53100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>30900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>62700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>70200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>96900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>67300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>24300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>41900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-22400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>35600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>19400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>35500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>21500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>613700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>75600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>59900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>85600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>24200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>118800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>13200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>19300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>18800</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>9900</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6605,8 +6803,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6614,88 +6813,91 @@
         <v>54000</v>
       </c>
       <c r="E83" s="3">
+        <v>54000</v>
+      </c>
+      <c r="F83" s="3">
         <v>54500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>53100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>53200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>55800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>55100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>55200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>54700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>56900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>55800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>55400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>53600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>54700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>54900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>54800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>55100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>56200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>56100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>55200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>53700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>54600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>55000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>54000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>52000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>106200</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>52400</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>52200</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>53500</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6783,8 +6985,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6872,8 +7077,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6961,8 +7169,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7050,8 +7261,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7139,97 +7353,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>107800</v>
+      </c>
+      <c r="E89" s="3">
         <v>131400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>52500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>247000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>100600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>23600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-105400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>168900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>101700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>135800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-24000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>181500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>55900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>40500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>31100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>203700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>81400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>111500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-47700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>171200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>48400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>120400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-26500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>177300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>62900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>79700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-12500</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>171200</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>94200</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7261,97 +7481,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-15200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-14600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-21300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-27600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-20100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-18000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-23000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-20000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-22200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-18100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-19200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-12100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-21600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-13600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-15600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-21300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-23100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-37600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-49500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-55900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-43300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-25600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-32200</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-13900</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-25100</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-14800</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7439,8 +7663,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7528,97 +7755,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-11200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-29900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-19200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-28900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-17600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-25000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-15400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-20000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-21400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-29200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-23900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-16500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-24600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-22100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-15800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-31700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-29500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-40400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-104300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-69400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-120800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-29200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-70600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-21600</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-24100</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7650,8 +7883,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7739,8 +7973,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7828,8 +8065,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7917,8 +8157,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8006,271 +8249,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-81300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-158300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-76100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-49700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-11500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-115800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-34600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-11100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-87800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-15100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-322100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-12800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-19200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-8800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-18200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-13100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-11800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-14100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-28000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-145000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-17100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-19500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-38700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>133200</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-16200</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-26600</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E101" s="3">
         <v>8500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-4100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>31300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-19900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-8200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-4700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>13900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>7400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-12900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-5400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-3200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-2800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-11500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>5100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>3000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>4700</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>11900</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>7800</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-12600</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-29600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>16400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>183000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-13700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-250900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>117600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>67300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>26000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-74100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-150600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>34000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>13400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-9300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>179300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>45100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>77300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-89700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>126700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-8900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-23400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-235800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>36000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>18900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-17700</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>106900</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>118300</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>57600</v>
       </c>
     </row>
